--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
   <si>
     <t>Timestamp</t>
   </si>
@@ -61,10 +61,70 @@
     <t>2025-07-25 17:21:21</t>
   </si>
   <si>
+    <t>2025-08-01 12:53:33</t>
+  </si>
+  <si>
+    <t>2025-08-01 12:54:35</t>
+  </si>
+  <si>
+    <t>2025-08-01 12:55:36</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:09:52</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:10:56</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:11:00</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:12:23</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:12:55</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:16:17</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:16:54</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:07:59</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:08:34</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:11:18</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:11:51</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:25:01</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:25:33</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:25:53</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:53:24</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:54:04</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:54:34</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>08873</t>
+    <t>46143</t>
   </si>
   <si>
     <t>Success</t>
@@ -74,6 +134,25 @@
   </si>
   <si>
     <t>No routes returned by API</t>
+  </si>
+  <si>
+    <t>422 - {
+    "error": {
+        "code": "validation_error",
+        "message": "Some Fields are invalid. See validation_errors for details"
+    },
+    "validation_errors": {
+        "ltl": {
+            "items": {
+                "0": {
+                    "total_weight": [
+                        "Error in $: Error validating Data.Shipping.Measurement.Measure.Measure WeightUnit: measurement_must_be_greater_than_zero"
+                    ]
+                }
+            }
+        }
+    }
+}</t>
   </si>
   <si>
     <t>Estes Express Lines</t>
@@ -434,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,13 +565,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>278.4</v>
@@ -515,13 +594,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I3">
         <v>278.4</v>
@@ -544,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -567,13 +646,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>228.76</v>
@@ -596,21 +675,21 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+      <c r="B7">
+        <v>7201</v>
+      </c>
+      <c r="C7">
+        <v>8873</v>
       </c>
       <c r="D7">
         <v>660</v>
@@ -619,16 +698,560 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I7">
         <v>228.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>7201</v>
+      </c>
+      <c r="C8">
+        <v>12533</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>29492</v>
+      </c>
+      <c r="C9">
+        <v>28214</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>7201</v>
+      </c>
+      <c r="C10">
+        <v>46809</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>7201</v>
+      </c>
+      <c r="C11">
+        <v>12533</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>29492</v>
+      </c>
+      <c r="C12">
+        <v>28214</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>7201</v>
+      </c>
+      <c r="C13">
+        <v>46809</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>94607</v>
+      </c>
+      <c r="C14">
+        <v>94561</v>
+      </c>
+      <c r="D14">
+        <v>1797</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14">
+        <v>515.0599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>90220</v>
+      </c>
+      <c r="C15">
+        <v>94561</v>
+      </c>
+      <c r="D15">
+        <v>1797</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15">
+        <v>824.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>94607</v>
+      </c>
+      <c r="C16">
+        <v>94561</v>
+      </c>
+      <c r="D16">
+        <v>1797</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>515.0599999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>90220</v>
+      </c>
+      <c r="C17">
+        <v>94561</v>
+      </c>
+      <c r="D17">
+        <v>1797</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17">
+        <v>824.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>94607</v>
+      </c>
+      <c r="C18">
+        <v>94561</v>
+      </c>
+      <c r="D18">
+        <v>2895</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18">
+        <v>468.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>90220</v>
+      </c>
+      <c r="C19">
+        <v>94561</v>
+      </c>
+      <c r="D19">
+        <v>2895</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19">
+        <v>785.0700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>94607</v>
+      </c>
+      <c r="C20">
+        <v>94561</v>
+      </c>
+      <c r="D20">
+        <v>2895</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20">
+        <v>468.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>90220</v>
+      </c>
+      <c r="C21">
+        <v>94561</v>
+      </c>
+      <c r="D21">
+        <v>2895</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21">
+        <v>785.0700000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>94607</v>
+      </c>
+      <c r="C22">
+        <v>94561</v>
+      </c>
+      <c r="D22">
+        <v>2895</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22">
+        <v>468.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>90220</v>
+      </c>
+      <c r="C23">
+        <v>94561</v>
+      </c>
+      <c r="D23">
+        <v>2895</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23">
+        <v>785.0700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>7201</v>
+      </c>
+      <c r="C24">
+        <v>17225</v>
+      </c>
+      <c r="D24">
+        <v>290</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24">
+        <v>306.61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>7201</v>
+      </c>
+      <c r="C25">
+        <v>8873</v>
+      </c>
+      <c r="D25">
+        <v>115</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>7201</v>
+      </c>
+      <c r="C26">
+        <v>8518</v>
+      </c>
+      <c r="D26">
+        <v>173</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26">
+        <v>251.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>159</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27">
+        <v>539.63</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="70">
   <si>
     <t>Timestamp</t>
   </si>
@@ -121,10 +121,94 @@
     <t>2025-08-04 06:54:34</t>
   </si>
   <si>
+    <t>2025-08-05 13:38:30</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:39:05</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:45:35</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:46:11</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:48:49</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:49:19</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:53:25</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:53:55</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:06:35</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:08:23</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:14:18</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:14:46</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:19:42</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:20:15</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:20:45</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:37:22</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:37:52</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:38:24</t>
+  </si>
+  <si>
+    <t>2025-08-05 17:29:55</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:10:56</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:11:56</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:12:35</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:14:12</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:14:50</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:15:21</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:22:53</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:23:27</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:24:01</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>46143</t>
+    <t>21901</t>
   </si>
   <si>
     <t>Success</t>
@@ -513,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,13 +649,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>278.4</v>
@@ -594,13 +678,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I3">
         <v>278.4</v>
@@ -623,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -646,13 +730,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I5">
         <v>228.76</v>
@@ -675,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -698,13 +782,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I7">
         <v>228.76</v>
@@ -727,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -750,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -773,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -796,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -819,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -842,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -865,13 +949,13 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I14">
         <v>515.0599999999999</v>
@@ -894,13 +978,13 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I15">
         <v>824.85</v>
@@ -923,13 +1007,13 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I16">
         <v>515.0599999999999</v>
@@ -952,13 +1036,13 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I17">
         <v>824.85</v>
@@ -981,13 +1065,13 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I18">
         <v>468.42</v>
@@ -1010,13 +1094,13 @@
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I19">
         <v>785.0700000000001</v>
@@ -1039,13 +1123,13 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I20">
         <v>468.42</v>
@@ -1068,13 +1152,13 @@
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I21">
         <v>785.0700000000001</v>
@@ -1097,13 +1181,13 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I22">
         <v>468.42</v>
@@ -1126,13 +1210,13 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I23">
         <v>785.0700000000001</v>
@@ -1155,13 +1239,13 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I24">
         <v>306.61</v>
@@ -1184,13 +1268,13 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I25">
         <v>228.43</v>
@@ -1213,13 +1297,13 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I26">
         <v>251.14</v>
@@ -1229,11 +1313,11 @@
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
+      <c r="B27">
+        <v>7201</v>
+      </c>
+      <c r="C27">
+        <v>46143</v>
       </c>
       <c r="D27">
         <v>159</v>
@@ -1242,16 +1326,774 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I27">
         <v>539.63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>7201</v>
+      </c>
+      <c r="C28">
+        <v>21901</v>
+      </c>
+      <c r="D28">
+        <v>2000</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>7201</v>
+      </c>
+      <c r="C29">
+        <v>8873</v>
+      </c>
+      <c r="D29">
+        <v>660</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>7201</v>
+      </c>
+      <c r="C30">
+        <v>21901</v>
+      </c>
+      <c r="D30">
+        <v>2000</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>7201</v>
+      </c>
+      <c r="C31">
+        <v>8873</v>
+      </c>
+      <c r="D31">
+        <v>660</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>7201</v>
+      </c>
+      <c r="C32">
+        <v>21901</v>
+      </c>
+      <c r="D32">
+        <v>2000</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>7201</v>
+      </c>
+      <c r="C33">
+        <v>8873</v>
+      </c>
+      <c r="D33">
+        <v>660</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>29483</v>
+      </c>
+      <c r="C34">
+        <v>30567</v>
+      </c>
+      <c r="D34">
+        <v>2000</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>7201</v>
+      </c>
+      <c r="C35">
+        <v>8873</v>
+      </c>
+      <c r="D35">
+        <v>660</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>7201</v>
+      </c>
+      <c r="C36">
+        <v>21901</v>
+      </c>
+      <c r="D36">
+        <v>1591</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>7201</v>
+      </c>
+      <c r="C37">
+        <v>21901</v>
+      </c>
+      <c r="D37">
+        <v>1000</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37">
+        <v>252.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>29483</v>
+      </c>
+      <c r="C38">
+        <v>30567</v>
+      </c>
+      <c r="D38">
+        <v>2000</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>7201</v>
+      </c>
+      <c r="C39">
+        <v>8873</v>
+      </c>
+      <c r="D39">
+        <v>660</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>29483</v>
+      </c>
+      <c r="C40">
+        <v>30567</v>
+      </c>
+      <c r="D40">
+        <v>2000</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>7201</v>
+      </c>
+      <c r="C41">
+        <v>8873</v>
+      </c>
+      <c r="D41">
+        <v>660</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>7201</v>
+      </c>
+      <c r="C42">
+        <v>21901</v>
+      </c>
+      <c r="D42">
+        <v>1000</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42">
+        <v>241.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>29483</v>
+      </c>
+      <c r="C43">
+        <v>30567</v>
+      </c>
+      <c r="D43">
+        <v>2000</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>7201</v>
+      </c>
+      <c r="C44">
+        <v>8873</v>
+      </c>
+      <c r="D44">
+        <v>660</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>7201</v>
+      </c>
+      <c r="C45">
+        <v>21901</v>
+      </c>
+      <c r="D45">
+        <v>1000</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45">
+        <v>241.21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>7201</v>
+      </c>
+      <c r="C46">
+        <v>21901</v>
+      </c>
+      <c r="D46">
+        <v>1591</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>7201</v>
+      </c>
+      <c r="C47">
+        <v>21901</v>
+      </c>
+      <c r="D47">
+        <v>1591</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>7201</v>
+      </c>
+      <c r="C48">
+        <v>21901</v>
+      </c>
+      <c r="D48">
+        <v>1591</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>7201</v>
+      </c>
+      <c r="C49">
+        <v>21901</v>
+      </c>
+      <c r="D49">
+        <v>1591</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>29483</v>
+      </c>
+      <c r="C50">
+        <v>30567</v>
+      </c>
+      <c r="D50">
+        <v>2000</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>7201</v>
+      </c>
+      <c r="C51">
+        <v>8873</v>
+      </c>
+      <c r="D51">
+        <v>660</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>7201</v>
+      </c>
+      <c r="C52">
+        <v>21901</v>
+      </c>
+      <c r="D52">
+        <v>1000</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52">
+        <v>241.21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>29483</v>
+      </c>
+      <c r="C53">
+        <v>30567</v>
+      </c>
+      <c r="D53">
+        <v>2000</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54">
+        <v>7201</v>
+      </c>
+      <c r="C54">
+        <v>8873</v>
+      </c>
+      <c r="D54">
+        <v>660</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" t="s">
+        <v>69</v>
+      </c>
+      <c r="I54">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55">
+        <v>1000</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55">
+        <v>241.21</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Timestamp</t>
   </si>
@@ -55,10 +55,40 @@
     <t>2025-08-06 16:49:26</t>
   </si>
   <si>
-    <t>07201</t>
-  </si>
-  <si>
-    <t>21901</t>
+    <t>2025-08-06 11:24:35</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:24:58</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:25:25</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:27:29</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:27:52</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:28:23</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:30:43</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:31:07</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:31:32</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:42:51</t>
+  </si>
+  <si>
+    <t>90220</t>
+  </si>
+  <si>
+    <t>94561</t>
   </si>
   <si>
     <t>Error</t>
@@ -422,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,10 +504,10 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -497,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -520,21 +550,21 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+      <c r="B5">
+        <v>7201</v>
+      </c>
+      <c r="C5">
+        <v>21901</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -543,10 +573,240 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>29483</v>
+      </c>
+      <c r="C6">
+        <v>30567</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>7201</v>
+      </c>
+      <c r="C7">
+        <v>8873</v>
+      </c>
+      <c r="D7">
+        <v>660</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B8">
+        <v>7201</v>
+      </c>
+      <c r="C8">
+        <v>21901</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>16</v>
+      </c>
+      <c r="B9">
+        <v>29483</v>
+      </c>
+      <c r="C9">
+        <v>30567</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>7201</v>
+      </c>
+      <c r="C10">
+        <v>8873</v>
+      </c>
+      <c r="D10">
+        <v>660</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>7201</v>
+      </c>
+      <c r="C11">
+        <v>21901</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>29483</v>
+      </c>
+      <c r="C12">
+        <v>30567</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>7201</v>
+      </c>
+      <c r="C13">
+        <v>8873</v>
+      </c>
+      <c r="D13">
+        <v>660</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>7201</v>
+      </c>
+      <c r="C14">
+        <v>21901</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>1155</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>Timestamp</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>2025-08-06 11:42:51</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:37:34</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:38:29</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:59:26</t>
   </si>
   <si>
     <t>90220</t>
@@ -452,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,10 +513,10 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -527,10 +536,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -550,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -573,10 +582,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -596,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -619,10 +628,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -642,10 +651,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -665,10 +674,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -688,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -711,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -734,10 +743,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,21 +789,21 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
+      <c r="B15">
+        <v>90220</v>
+      </c>
+      <c r="C15">
+        <v>94561</v>
       </c>
       <c r="D15">
         <v>1155</v>
@@ -803,10 +812,79 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>90220</v>
+      </c>
+      <c r="C16">
+        <v>94561</v>
+      </c>
+      <c r="D16">
+        <v>1155</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>90220</v>
+      </c>
+      <c r="C17">
+        <v>94561</v>
+      </c>
+      <c r="D17">
+        <v>1155</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="G15" t="s">
+      <c r="B18" t="s">
         <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>1155</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
   <si>
     <t>Timestamp</t>
   </si>
@@ -94,16 +94,49 @@
     <t>2025-08-06 18:59:26</t>
   </si>
   <si>
-    <t>90220</t>
-  </si>
-  <si>
-    <t>94561</t>
+    <t>2025-08-07 07:48:00</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:48:30</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:48:59</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:50:45</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:51:17</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:51:46</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:53:27</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:53:56</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:54:24</t>
+  </si>
+  <si>
+    <t>07201</t>
+  </si>
+  <si>
+    <t>21901</t>
   </si>
   <si>
     <t>Error</t>
   </si>
   <si>
+    <t>Success</t>
+  </si>
+  <si>
     <t>No routes returned by API</t>
+  </si>
+  <si>
+    <t>Estes Express Lines</t>
   </si>
 </sst>
 </file>
@@ -461,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +546,10 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -536,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -559,10 +592,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -582,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -605,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -628,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -651,10 +684,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,10 +730,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -720,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -743,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -766,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -789,10 +822,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,10 +845,10 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,13 +868,13 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -858,21 +891,21 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
+      <c r="B18">
+        <v>90220</v>
+      </c>
+      <c r="C18">
+        <v>94561</v>
       </c>
       <c r="D18">
         <v>1155</v>
@@ -881,10 +914,253 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>29483</v>
+      </c>
+      <c r="C19">
+        <v>30567</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>7201</v>
+      </c>
+      <c r="C20">
+        <v>8873</v>
+      </c>
+      <c r="D20">
+        <v>660</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="G18" t="s">
+      <c r="B21">
+        <v>7201</v>
+      </c>
+      <c r="C21">
+        <v>21901</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>241.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>29</v>
+      </c>
+      <c r="B22">
+        <v>29483</v>
+      </c>
+      <c r="C22">
+        <v>30567</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>7201</v>
+      </c>
+      <c r="C23">
+        <v>8873</v>
+      </c>
+      <c r="D23">
+        <v>660</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>7201</v>
+      </c>
+      <c r="C24">
+        <v>21901</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>241.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>29483</v>
+      </c>
+      <c r="C25">
+        <v>30567</v>
+      </c>
+      <c r="D25">
+        <v>2000</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>7201</v>
+      </c>
+      <c r="C26">
+        <v>8873</v>
+      </c>
+      <c r="D26">
+        <v>660</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27">
+        <v>241.21</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>Timestamp</t>
   </si>
@@ -50,6 +50,42 @@
   </si>
   <si>
     <t>2025-08-10 14:22:52</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:10:25</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:11:06</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:11:43</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:17:36</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:18:06</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:18:49</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:52:14</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:52:55</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:53:31</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:54:07</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:54:45</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:55:15</t>
   </si>
   <si>
     <t>07201</t>
@@ -422,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,13 +510,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>1535.91</v>
@@ -503,13 +539,13 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>2366.32</v>
@@ -519,11 +555,11 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="B4">
+        <v>7201</v>
+      </c>
+      <c r="C4">
+        <v>85043</v>
       </c>
       <c r="D4">
         <v>576</v>
@@ -532,16 +568,364 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <v>3251.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>7201</v>
+      </c>
+      <c r="C5">
+        <v>75241</v>
+      </c>
+      <c r="D5">
+        <v>461</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>1535.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>90220</v>
+      </c>
+      <c r="C6">
+        <v>85395</v>
+      </c>
+      <c r="D6">
+        <v>461</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>640.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>7201</v>
+      </c>
+      <c r="C7">
+        <v>85043</v>
+      </c>
+      <c r="D7">
+        <v>576</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>3447.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>7201</v>
+      </c>
+      <c r="C8">
+        <v>75241</v>
+      </c>
+      <c r="D8">
+        <v>461</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8">
+        <v>1535.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>90220</v>
+      </c>
+      <c r="C9">
+        <v>85395</v>
+      </c>
+      <c r="D9">
+        <v>461</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>640.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>7201</v>
+      </c>
+      <c r="C10">
+        <v>85043</v>
+      </c>
+      <c r="D10">
+        <v>576</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>3447.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>7201</v>
+      </c>
+      <c r="C11">
+        <v>75241</v>
+      </c>
+      <c r="D11">
+        <v>461</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>1535.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>90220</v>
+      </c>
+      <c r="C12">
+        <v>85395</v>
+      </c>
+      <c r="D12">
+        <v>461</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>640.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>7201</v>
+      </c>
+      <c r="C13">
+        <v>85043</v>
+      </c>
+      <c r="D13">
+        <v>576</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>3447.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>7201</v>
+      </c>
+      <c r="C14">
+        <v>75241</v>
+      </c>
+      <c r="D14">
+        <v>461</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14">
+        <v>1535.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>90220</v>
+      </c>
+      <c r="C15">
+        <v>85395</v>
+      </c>
+      <c r="D15">
+        <v>461</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <v>640.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>576</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>3447.12</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="55">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -58,6 +58,24 @@
     <t>CMM0246LCL0052</t>
   </si>
   <si>
+    <t>CMM0246LCL0043</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0053</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0054</t>
+  </si>
+  <si>
+    <t>CMM0829LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0829LCL0008</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0062</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -88,10 +106,61 @@
     <t>2025-08-14 15:39:51</t>
   </si>
   <si>
+    <t>2025-08-14 10:25:09</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:27:05</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:27:28</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:27:57</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:18:29</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:20:47</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:21:30</t>
+  </si>
+  <si>
+    <t>2025-08-15 10:12:07</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:29:15</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:37:56</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:38:07</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:05:30</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:06:08</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:06:17</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:26:21</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:26:38</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:26:48</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>17112</t>
+    <t>46809</t>
   </si>
   <si>
     <t>Success</t>
@@ -101,6 +170,25 @@
   </si>
   <si>
     <t>No routes returned by API</t>
+  </si>
+  <si>
+    <t>422 - {
+    "error": {
+        "code": "validation_error",
+        "message": "Some Fields are invalid. See validation_errors for details"
+    },
+    "validation_errors": {
+        "ltl": {
+            "items": {
+                "0": {
+                    "total_weight": [
+                        "Error in $: Error validating Data.Shipping.Measurement.Measure.Measure WeightUnit: measurement_must_be_greater_than_zero"
+                    ]
+                }
+            }
+        }
+    }
+}</t>
   </si>
   <si>
     <t>Estes Express Lines</t>
@@ -464,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -525,19 +613,19 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <v>546.16</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -545,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>7201</v>
@@ -560,19 +648,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>2033.46</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -580,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>90220</v>
@@ -595,19 +683,19 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>1314.23</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -615,7 +703,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>90220</v>
@@ -630,19 +718,19 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>638.28</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -650,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -665,19 +753,19 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>1391.13</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -685,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>29483</v>
@@ -700,10 +788,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,7 +799,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>7201</v>
@@ -726,19 +814,19 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>228.43</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>77020</v>
@@ -761,10 +849,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,7 +860,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>7201</v>
@@ -787,10 +875,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,13 +886,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>7201</v>
+      </c>
+      <c r="D11">
+        <v>17112</v>
       </c>
       <c r="E11">
         <v>100000</v>
@@ -813,10 +901,506 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>7201</v>
+      </c>
+      <c r="D12">
+        <v>18202</v>
+      </c>
+      <c r="E12">
+        <v>720</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12">
+        <v>331.73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>77020</v>
+      </c>
+      <c r="D13">
+        <v>75007</v>
+      </c>
+      <c r="E13">
+        <v>5000</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>7201</v>
+      </c>
+      <c r="D14">
+        <v>18105</v>
+      </c>
+      <c r="E14">
+        <v>20000</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>7201</v>
+      </c>
+      <c r="D15">
+        <v>17112</v>
+      </c>
+      <c r="E15">
+        <v>100000</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>29483</v>
+      </c>
+      <c r="D16">
+        <v>29330</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>29483</v>
+      </c>
+      <c r="D17">
+        <v>29330</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>29483</v>
+      </c>
+      <c r="D18">
+        <v>29330</v>
+      </c>
+      <c r="E18">
+        <v>5460</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18">
+        <v>1148.94</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>7201</v>
+      </c>
+      <c r="D19">
+        <v>46410</v>
+      </c>
+      <c r="E19">
+        <v>5460</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19">
+        <v>2094.3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>29483</v>
+      </c>
+      <c r="D20">
+        <v>29330</v>
+      </c>
+      <c r="E20">
+        <v>6301</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20">
+        <v>1220.31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>7201</v>
+      </c>
+      <c r="D21">
+        <v>46410</v>
+      </c>
+      <c r="E21">
+        <v>6301</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21">
+        <v>2285.01</v>
+      </c>
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>7201</v>
+      </c>
+      <c r="D22">
+        <v>46410</v>
+      </c>
+      <c r="E22">
+        <v>6301</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22">
+        <v>2285.01</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23">
+        <v>7201</v>
+      </c>
+      <c r="D23">
+        <v>48917</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>60433</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>7201</v>
+      </c>
+      <c r="D25">
+        <v>46809</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>7201</v>
+      </c>
+      <c r="D26">
+        <v>48917</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>60433</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="65">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -76,6 +76,9 @@
     <t>CMM0800LCL0062</t>
   </si>
   <si>
+    <t>CMM0800LCL0069</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -157,10 +160,34 @@
     <t>2025-08-18 06:26:48</t>
   </si>
   <si>
-    <t>07201</t>
-  </si>
-  <si>
-    <t>46809</t>
+    <t>2025-08-18 06:51:41</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:55:47</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:56:16</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:56:29</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:02:51</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:11</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:24</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:52</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>60433</t>
   </si>
   <si>
     <t>Success</t>
@@ -188,6 +215,17 @@
             }
         }
     }
+}</t>
+  </si>
+  <si>
+    <t>422 - {
+    "error": {
+        "code": "validation_error",
+        "message": "Some Fields are invalid. See validation_errors for details"
+    },
+    "validation_errors": [
+        "unknown_pickup_location"
+    ]
 }</t>
   </si>
   <si>
@@ -552,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -613,19 +651,19 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J2">
         <v>546.16</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -633,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>7201</v>
@@ -648,19 +686,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J3">
         <v>2033.46</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -668,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>90220</v>
@@ -683,19 +721,19 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J4">
         <v>1314.23</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -703,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>90220</v>
@@ -718,19 +756,19 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J5">
         <v>638.28</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -738,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -753,19 +791,19 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J6">
         <v>1391.13</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -773,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>29483</v>
@@ -788,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -799,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>7201</v>
@@ -814,19 +852,19 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J8">
         <v>228.43</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -834,7 +872,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>77020</v>
@@ -849,10 +887,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -860,7 +898,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>7201</v>
@@ -875,10 +913,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -886,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>7201</v>
@@ -901,10 +939,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -912,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>7201</v>
@@ -927,19 +965,19 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J12">
         <v>331.73</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -947,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>77020</v>
@@ -962,10 +1000,10 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -973,7 +1011,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -988,10 +1026,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -999,7 +1037,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1014,10 +1052,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1025,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>29483</v>
@@ -1040,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1051,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>29483</v>
@@ -1066,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1077,7 +1115,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>29483</v>
@@ -1092,19 +1130,19 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J18">
         <v>1148.94</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1112,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>7201</v>
@@ -1127,19 +1165,19 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J19">
         <v>2094.3</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1147,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>29483</v>
@@ -1162,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <v>1220.31</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1182,7 +1220,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>7201</v>
@@ -1197,19 +1235,19 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J21">
         <v>2285.01</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1217,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>7201</v>
@@ -1232,19 +1270,19 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J22">
         <v>2285.01</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1252,7 +1290,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>7201</v>
@@ -1267,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1278,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1293,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1304,7 +1342,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1319,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1330,7 +1368,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>7201</v>
@@ -1345,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1356,7 +1394,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1371,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1382,25 +1420,269 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
         <v>47</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28">
+        <v>7201</v>
+      </c>
+      <c r="D28">
+        <v>46809</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>60433</v>
+      </c>
+      <c r="E29">
+        <v>4184</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30">
+        <v>7201</v>
+      </c>
+      <c r="D30">
+        <v>48917</v>
+      </c>
+      <c r="E30">
+        <v>2086</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30">
+        <v>827.1900000000001</v>
+      </c>
+      <c r="K30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="H28" t="s">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>60433</v>
+      </c>
+      <c r="E31">
+        <v>4184</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>7201</v>
+      </c>
+      <c r="D32">
+        <v>46809</v>
+      </c>
+      <c r="E32">
+        <v>4608</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32">
+        <v>1451.97</v>
+      </c>
+      <c r="K32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
         <v>52</v>
+      </c>
+      <c r="C33">
+        <v>7201</v>
+      </c>
+      <c r="D33">
+        <v>48917</v>
+      </c>
+      <c r="E33">
+        <v>2086</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33">
+        <v>827.1900000000001</v>
+      </c>
+      <c r="K33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>60433</v>
+      </c>
+      <c r="E34">
+        <v>4184</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>7201</v>
+      </c>
+      <c r="D35">
+        <v>46809</v>
+      </c>
+      <c r="E35">
+        <v>4608</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35">
+        <v>1451.97</v>
+      </c>
+      <c r="K35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36">
+        <v>4184</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="86">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -79,6 +79,24 @@
     <t>CMM0800LCL0069</t>
   </si>
   <si>
+    <t>CMM0800LCL0064</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0063</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0005</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0055</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0038</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0039</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -184,10 +202,52 @@
     <t>2025-08-18 07:03:52</t>
   </si>
   <si>
-    <t>00000</t>
-  </si>
-  <si>
-    <t>60433</t>
+    <t>2025-08-18 07:48:35</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:48:57</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:52:24</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:53:52</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:24:28</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:25:13</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:46:35</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:48:41</t>
+  </si>
+  <si>
+    <t>2025-08-19 07:49:54</t>
+  </si>
+  <si>
+    <t>2025-08-19 09:15:51</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:36:42</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:44:27</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:48:51</t>
+  </si>
+  <si>
+    <t>2025-08-19 12:08:47</t>
+  </si>
+  <si>
+    <t>29483</t>
+  </si>
+  <si>
+    <t>29330</t>
   </si>
   <si>
     <t>Success</t>
@@ -230,6 +290,9 @@
   </si>
   <si>
     <t>Estes Express Lines</t>
+  </si>
+  <si>
+    <t>ABF Freight</t>
   </si>
   <si>
     <t>API</t>
@@ -590,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -651,19 +714,19 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J2">
         <v>546.16</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -671,7 +734,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>7201</v>
@@ -686,19 +749,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J3">
         <v>2033.46</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -706,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>90220</v>
@@ -721,19 +784,19 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J4">
         <v>1314.23</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -741,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>90220</v>
@@ -756,19 +819,19 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J5">
         <v>638.28</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -776,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -791,19 +854,19 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J6">
         <v>1391.13</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -811,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>29483</v>
@@ -826,10 +889,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -837,7 +900,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>7201</v>
@@ -852,19 +915,19 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J8">
         <v>228.43</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -872,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>77020</v>
@@ -887,10 +950,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -898,7 +961,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>7201</v>
@@ -913,10 +976,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -924,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>7201</v>
@@ -939,10 +1002,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,7 +1013,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>7201</v>
@@ -965,19 +1028,19 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J12">
         <v>331.73</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,7 +1048,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>77020</v>
@@ -1000,10 +1063,10 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1011,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1026,10 +1089,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1037,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1052,10 +1115,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1063,7 +1126,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>29483</v>
@@ -1078,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1089,7 +1152,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>29483</v>
@@ -1104,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1115,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>29483</v>
@@ -1130,19 +1193,19 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J18">
         <v>1148.94</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1150,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>7201</v>
@@ -1165,19 +1228,19 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J19">
         <v>2094.3</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1185,7 +1248,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>29483</v>
@@ -1200,19 +1263,19 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J20">
         <v>1220.31</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1220,7 +1283,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>7201</v>
@@ -1235,19 +1298,19 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J21">
         <v>2285.01</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1255,7 +1318,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>7201</v>
@@ -1270,19 +1333,19 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J22">
         <v>2285.01</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1290,7 +1353,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>7201</v>
@@ -1305,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1316,7 +1379,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1331,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1342,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1357,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1368,7 +1431,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>7201</v>
@@ -1383,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1394,7 +1457,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1409,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1420,7 +1483,7 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1435,10 +1498,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1446,7 +1509,7 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1461,10 +1524,10 @@
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1472,7 +1535,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -1487,19 +1550,19 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J30">
         <v>827.1900000000001</v>
       </c>
       <c r="K30" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1507,7 +1570,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1522,10 +1585,10 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,7 +1596,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -1548,19 +1611,19 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J32">
         <v>1451.97</v>
       </c>
       <c r="K32" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,7 +1631,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -1583,19 +1646,19 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J33">
         <v>827.1900000000001</v>
       </c>
       <c r="K33" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,7 +1666,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1618,10 +1681,10 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1629,7 +1692,7 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C35">
         <v>7201</v>
@@ -1644,19 +1707,19 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J35">
         <v>1451.97</v>
       </c>
       <c r="K35" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1664,13 +1727,13 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>60433</v>
       </c>
       <c r="E36">
         <v>4184</v>
@@ -1679,10 +1742,455 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
         <v>62</v>
+      </c>
+      <c r="C37">
+        <v>90220</v>
+      </c>
+      <c r="D37">
+        <v>89044</v>
+      </c>
+      <c r="E37">
+        <v>4677</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37">
+        <v>1391.13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38">
+        <v>90220</v>
+      </c>
+      <c r="D38">
+        <v>85395</v>
+      </c>
+      <c r="E38">
+        <v>3998</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38">
+        <v>905.52</v>
+      </c>
+      <c r="K38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>60433</v>
+      </c>
+      <c r="E39">
+        <v>4184</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>60433</v>
+      </c>
+      <c r="E40">
+        <v>4184</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41">
+        <v>7201</v>
+      </c>
+      <c r="D41">
+        <v>15672</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>7201</v>
+      </c>
+      <c r="D42">
+        <v>15672</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>7201</v>
+      </c>
+      <c r="D43">
+        <v>15672</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>7201</v>
+      </c>
+      <c r="D44">
+        <v>15672</v>
+      </c>
+      <c r="E44">
+        <v>110</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44">
+        <v>478.71</v>
+      </c>
+      <c r="K44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>7201</v>
+      </c>
+      <c r="D45">
+        <v>15672</v>
+      </c>
+      <c r="E45">
+        <v>110</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45">
+        <v>478.71</v>
+      </c>
+      <c r="K45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>29483</v>
+      </c>
+      <c r="D46">
+        <v>29330</v>
+      </c>
+      <c r="E46">
+        <v>4822</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46">
+        <v>594.48</v>
+      </c>
+      <c r="K46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>29483</v>
+      </c>
+      <c r="D47">
+        <v>29330</v>
+      </c>
+      <c r="E47">
+        <v>1528</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47">
+        <v>299.88</v>
+      </c>
+      <c r="K47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>29483</v>
+      </c>
+      <c r="D48">
+        <v>29330</v>
+      </c>
+      <c r="E48">
+        <v>2902</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48">
+        <v>401.77</v>
+      </c>
+      <c r="K48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>29483</v>
+      </c>
+      <c r="D49">
+        <v>29330</v>
+      </c>
+      <c r="E49">
+        <v>1528</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49">
+        <v>299.88</v>
+      </c>
+      <c r="K49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50">
+        <v>1528</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50">
+        <v>299.88</v>
+      </c>
+      <c r="K50" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="123">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -97,6 +97,36 @@
     <t>CMM0827LCL0039</t>
   </si>
   <si>
+    <t>CMM0014LCL0005</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0062</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0063</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0056</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0057</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0072</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0073</t>
+  </si>
+  <si>
+    <t>CMM0077LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0117</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -244,10 +274,88 @@
     <t>2025-08-19 12:08:47</t>
   </si>
   <si>
+    <t>2025-08-20 07:27:11</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:03:16</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:05:51</t>
+  </si>
+  <si>
+    <t>2025-08-22 09:55:32</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:52:12</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:52:41</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:29:09</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:30:04</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:32:31</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:33:02</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:34:17</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:34:54</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:35:32</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:31:16</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:32:33</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:33:28</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:37:18</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:37:46</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:34:00</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:36:14</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:47:48</t>
+  </si>
+  <si>
+    <t>2025-08-25 05:51:59</t>
+  </si>
+  <si>
+    <t>2025-08-25 06:09:53</t>
+  </si>
+  <si>
+    <t>2025-08-25 07:50:08</t>
+  </si>
+  <si>
+    <t>2025-08-25 10:22:00</t>
+  </si>
+  <si>
+    <t>2025-08-26 05:41:35</t>
+  </si>
+  <si>
     <t>29483</t>
   </si>
   <si>
-    <t>29330</t>
+    <t>30096</t>
   </si>
   <si>
     <t>Success</t>
@@ -293,6 +401,9 @@
   </si>
   <si>
     <t>ABF Freight</t>
+  </si>
+  <si>
+    <t>Frontline Freight</t>
   </si>
   <si>
     <t>API</t>
@@ -653,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -714,19 +825,19 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J2">
         <v>546.16</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -734,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>7201</v>
@@ -749,19 +860,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J3">
         <v>2033.46</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -769,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>90220</v>
@@ -784,19 +895,19 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J4">
         <v>1314.23</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -804,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>90220</v>
@@ -819,19 +930,19 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J5">
         <v>638.28</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -839,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -854,19 +965,19 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J6">
         <v>1391.13</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -874,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>29483</v>
@@ -889,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -900,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>7201</v>
@@ -915,19 +1026,19 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J8">
         <v>228.43</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -935,7 +1046,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>77020</v>
@@ -950,10 +1061,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -961,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>7201</v>
@@ -976,10 +1087,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -987,7 +1098,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>7201</v>
@@ -1002,10 +1113,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1013,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>7201</v>
@@ -1028,19 +1139,19 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J12">
         <v>331.73</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1048,7 +1159,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>77020</v>
@@ -1063,10 +1174,10 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1074,7 +1185,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1089,10 +1200,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1100,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1115,10 +1226,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1126,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>29483</v>
@@ -1141,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1152,7 +1263,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>29483</v>
@@ -1167,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1178,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>29483</v>
@@ -1193,19 +1304,19 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J18">
         <v>1148.94</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1213,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>7201</v>
@@ -1228,19 +1339,19 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J19">
         <v>2094.3</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1248,7 +1359,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>29483</v>
@@ -1263,19 +1374,19 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J20">
         <v>1220.31</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1283,7 +1394,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>7201</v>
@@ -1298,19 +1409,19 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J21">
         <v>2285.01</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1318,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>7201</v>
@@ -1333,19 +1444,19 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J22">
         <v>2285.01</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1353,7 +1464,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>7201</v>
@@ -1368,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1379,7 +1490,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1394,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,7 +1516,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1420,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1431,7 +1542,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>7201</v>
@@ -1446,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1457,7 +1568,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1472,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1483,7 +1594,7 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1498,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1509,7 +1620,7 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1524,10 +1635,10 @@
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1535,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -1550,19 +1661,19 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J30">
         <v>827.1900000000001</v>
       </c>
       <c r="K30" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1570,7 +1681,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1585,10 +1696,10 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1596,7 +1707,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -1611,19 +1722,19 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J32">
         <v>1451.97</v>
       </c>
       <c r="K32" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1631,7 +1742,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -1646,19 +1757,19 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J33">
         <v>827.1900000000001</v>
       </c>
       <c r="K33" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1666,7 +1777,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1681,10 +1792,10 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1692,7 +1803,7 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C35">
         <v>7201</v>
@@ -1707,19 +1818,19 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I35" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J35">
         <v>1451.97</v>
       </c>
       <c r="K35" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1727,7 +1838,7 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1742,10 +1853,10 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1753,7 +1864,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C37">
         <v>90220</v>
@@ -1768,19 +1879,19 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J37">
         <v>1391.13</v>
       </c>
       <c r="K37" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1788,7 +1899,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>90220</v>
@@ -1803,19 +1914,19 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I38" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J38">
         <v>905.52</v>
       </c>
       <c r="K38" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1823,7 +1934,7 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1838,10 +1949,10 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1849,7 +1960,7 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1864,10 +1975,10 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1875,7 +1986,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>7201</v>
@@ -1890,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H41" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1901,7 +2012,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>7201</v>
@@ -1916,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H42" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,7 +2038,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C43">
         <v>7201</v>
@@ -1942,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="H43" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,7 +2064,7 @@
         <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C44">
         <v>7201</v>
@@ -1968,19 +2079,19 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I44" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="J44">
         <v>478.71</v>
       </c>
       <c r="K44" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,7 +2099,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C45">
         <v>7201</v>
@@ -2003,19 +2114,19 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I45" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="J45">
         <v>478.71</v>
       </c>
       <c r="K45" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,7 +2134,7 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C46">
         <v>29483</v>
@@ -2038,19 +2149,19 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J46">
         <v>594.48</v>
       </c>
       <c r="K46" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,7 +2169,7 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C47">
         <v>29483</v>
@@ -2073,19 +2184,19 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I47" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J47">
         <v>299.88</v>
       </c>
       <c r="K47" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,7 +2204,7 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -2108,19 +2219,19 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I48" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J48">
         <v>401.77</v>
       </c>
       <c r="K48" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,7 +2239,7 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -2143,19 +2254,19 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H49" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J49">
         <v>299.88</v>
       </c>
       <c r="K49" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,13 +2274,13 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" t="s">
-        <v>77</v>
+        <v>85</v>
+      </c>
+      <c r="C50">
+        <v>29483</v>
+      </c>
+      <c r="D50">
+        <v>29330</v>
       </c>
       <c r="E50">
         <v>1528</v>
@@ -2178,19 +2289,884 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J50">
         <v>299.88</v>
       </c>
       <c r="K50" t="s">
-        <v>85</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51">
+        <v>7201</v>
+      </c>
+      <c r="D51">
+        <v>15672</v>
+      </c>
+      <c r="E51">
+        <v>110</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" t="s">
+        <v>120</v>
+      </c>
+      <c r="J51">
+        <v>478.71</v>
+      </c>
+      <c r="K51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52">
+        <v>29483</v>
+      </c>
+      <c r="D52">
+        <v>29330</v>
+      </c>
+      <c r="E52">
+        <v>1528</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" t="s">
+        <v>114</v>
+      </c>
+      <c r="I52" t="s">
+        <v>119</v>
+      </c>
+      <c r="J52">
+        <v>299.01</v>
+      </c>
+      <c r="K52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53">
+        <v>29483</v>
+      </c>
+      <c r="D53">
+        <v>29330</v>
+      </c>
+      <c r="E53">
+        <v>5433</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" t="s">
+        <v>119</v>
+      </c>
+      <c r="J53">
+        <v>643.77</v>
+      </c>
+      <c r="K53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54">
+        <v>7201</v>
+      </c>
+      <c r="D54">
+        <v>15672</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55">
+        <v>7201</v>
+      </c>
+      <c r="D55">
+        <v>18202</v>
+      </c>
+      <c r="E55">
+        <v>1020</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" t="s">
+        <v>114</v>
+      </c>
+      <c r="I55" t="s">
+        <v>119</v>
+      </c>
+      <c r="J55">
+        <v>331.73</v>
+      </c>
+      <c r="K55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56">
+        <v>7201</v>
+      </c>
+      <c r="D56">
+        <v>22406</v>
+      </c>
+      <c r="E56">
+        <v>2039</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>114</v>
+      </c>
+      <c r="H56" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" t="s">
+        <v>119</v>
+      </c>
+      <c r="J56">
+        <v>537.5599999999999</v>
+      </c>
+      <c r="K56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57">
+        <v>90220</v>
+      </c>
+      <c r="D57">
+        <v>85043</v>
+      </c>
+      <c r="E57">
+        <v>2013</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>114</v>
+      </c>
+      <c r="H57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I57" t="s">
+        <v>119</v>
+      </c>
+      <c r="J57">
+        <v>568.7</v>
+      </c>
+      <c r="K57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58">
+        <v>90220</v>
+      </c>
+      <c r="D58">
+        <v>85395</v>
+      </c>
+      <c r="E58">
+        <v>2013</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>114</v>
+      </c>
+      <c r="H58" t="s">
+        <v>114</v>
+      </c>
+      <c r="I58" t="s">
+        <v>119</v>
+      </c>
+      <c r="J58">
+        <v>578.4400000000001</v>
+      </c>
+      <c r="K58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59">
+        <v>7201</v>
+      </c>
+      <c r="D59">
+        <v>18202</v>
+      </c>
+      <c r="E59">
+        <v>1020</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>114</v>
+      </c>
+      <c r="H59" t="s">
+        <v>114</v>
+      </c>
+      <c r="I59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J59">
+        <v>331.73</v>
+      </c>
+      <c r="K59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60">
+        <v>7201</v>
+      </c>
+      <c r="D60">
+        <v>22406</v>
+      </c>
+      <c r="E60">
+        <v>2039</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>114</v>
+      </c>
+      <c r="H60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J60">
+        <v>1080.48</v>
+      </c>
+      <c r="K60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61">
+        <v>7201</v>
+      </c>
+      <c r="D61">
+        <v>18202</v>
+      </c>
+      <c r="E61">
+        <v>1020</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61" t="s">
+        <v>114</v>
+      </c>
+      <c r="I61" t="s">
+        <v>119</v>
+      </c>
+      <c r="J61">
+        <v>331.73</v>
+      </c>
+      <c r="K61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62">
+        <v>7201</v>
+      </c>
+      <c r="D62">
+        <v>22406</v>
+      </c>
+      <c r="E62">
+        <v>2039</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>114</v>
+      </c>
+      <c r="H62" t="s">
+        <v>114</v>
+      </c>
+      <c r="I62" t="s">
+        <v>120</v>
+      </c>
+      <c r="J62">
+        <v>1080.48</v>
+      </c>
+      <c r="K62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63">
+        <v>90220</v>
+      </c>
+      <c r="D63">
+        <v>75241</v>
+      </c>
+      <c r="E63">
+        <v>1677</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" t="s">
+        <v>114</v>
+      </c>
+      <c r="I63" t="s">
+        <v>121</v>
+      </c>
+      <c r="J63">
+        <v>824.79</v>
+      </c>
+      <c r="K63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64">
+        <v>90220</v>
+      </c>
+      <c r="D64">
+        <v>85043</v>
+      </c>
+      <c r="E64">
+        <v>2013</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>114</v>
+      </c>
+      <c r="H64" t="s">
+        <v>114</v>
+      </c>
+      <c r="I64" t="s">
+        <v>119</v>
+      </c>
+      <c r="J64">
+        <v>568.7</v>
+      </c>
+      <c r="K64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65">
+        <v>90220</v>
+      </c>
+      <c r="D65">
+        <v>85395</v>
+      </c>
+      <c r="E65">
+        <v>2013</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>114</v>
+      </c>
+      <c r="H65" t="s">
+        <v>114</v>
+      </c>
+      <c r="I65" t="s">
+        <v>119</v>
+      </c>
+      <c r="J65">
+        <v>578.4400000000001</v>
+      </c>
+      <c r="K65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66">
+        <v>90220</v>
+      </c>
+      <c r="D66">
+        <v>75241</v>
+      </c>
+      <c r="E66">
+        <v>1677</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J66">
+        <v>824.79</v>
+      </c>
+      <c r="K66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67">
+        <v>7201</v>
+      </c>
+      <c r="D67">
+        <v>18202</v>
+      </c>
+      <c r="E67">
+        <v>1020</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>114</v>
+      </c>
+      <c r="H67" t="s">
+        <v>114</v>
+      </c>
+      <c r="I67" t="s">
+        <v>119</v>
+      </c>
+      <c r="J67">
+        <v>331.73</v>
+      </c>
+      <c r="K67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68">
+        <v>7201</v>
+      </c>
+      <c r="D68">
+        <v>22406</v>
+      </c>
+      <c r="E68">
+        <v>2039</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>114</v>
+      </c>
+      <c r="H68" t="s">
+        <v>114</v>
+      </c>
+      <c r="I68" t="s">
+        <v>119</v>
+      </c>
+      <c r="J68">
+        <v>537.5599999999999</v>
+      </c>
+      <c r="K68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69">
+        <v>29483</v>
+      </c>
+      <c r="D69">
+        <v>30096</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>115</v>
+      </c>
+      <c r="H69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70">
+        <v>29483</v>
+      </c>
+      <c r="D70">
+        <v>30096</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71">
+        <v>90220</v>
+      </c>
+      <c r="D71">
+        <v>91752</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>115</v>
+      </c>
+      <c r="H71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72">
+        <v>7201</v>
+      </c>
+      <c r="D72">
+        <v>21740</v>
+      </c>
+      <c r="E72">
+        <v>1530</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>114</v>
+      </c>
+      <c r="H72" t="s">
+        <v>114</v>
+      </c>
+      <c r="I72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J72">
+        <v>663.39</v>
+      </c>
+      <c r="K72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73">
+        <v>29483</v>
+      </c>
+      <c r="D73">
+        <v>38654</v>
+      </c>
+      <c r="E73">
+        <v>1374</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>114</v>
+      </c>
+      <c r="H73" t="s">
+        <v>114</v>
+      </c>
+      <c r="I73" t="s">
+        <v>119</v>
+      </c>
+      <c r="J73">
+        <v>833.58</v>
+      </c>
+      <c r="K73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74">
+        <v>7201</v>
+      </c>
+      <c r="D74">
+        <v>18447</v>
+      </c>
+      <c r="E74">
+        <v>4971</v>
+      </c>
+      <c r="F74">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s">
+        <v>114</v>
+      </c>
+      <c r="H74" t="s">
+        <v>114</v>
+      </c>
+      <c r="I74" t="s">
+        <v>119</v>
+      </c>
+      <c r="J74">
+        <v>1009.71</v>
+      </c>
+      <c r="K74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75">
+        <v>29483</v>
+      </c>
+      <c r="D75">
+        <v>28134</v>
+      </c>
+      <c r="E75">
+        <v>1359</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>114</v>
+      </c>
+      <c r="H75" t="s">
+        <v>114</v>
+      </c>
+      <c r="I75" t="s">
+        <v>119</v>
+      </c>
+      <c r="J75">
+        <v>350.66</v>
+      </c>
+      <c r="K75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>115</v>
+      </c>
+      <c r="H76" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="128">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -127,6 +127,12 @@
     <t>CMM0657LCL0117</t>
   </si>
   <si>
+    <t>CMM0910LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0911LCL0001</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -352,10 +358,19 @@
     <t>2025-08-26 05:41:35</t>
   </si>
   <si>
-    <t>29483</t>
-  </si>
-  <si>
-    <t>30096</t>
+    <t>2025-08-26 06:01:31</t>
+  </si>
+  <si>
+    <t>2025-08-28 08:59:14</t>
+  </si>
+  <si>
+    <t>2025-08-28 09:53:39</t>
+  </si>
+  <si>
+    <t>07201</t>
+  </si>
+  <si>
+    <t>15672</t>
   </si>
   <si>
     <t>Success</t>
@@ -764,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -825,19 +840,19 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J2">
         <v>546.16</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -845,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>7201</v>
@@ -860,19 +875,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J3">
         <v>2033.46</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -880,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>90220</v>
@@ -895,19 +910,19 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J4">
         <v>1314.23</v>
       </c>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -915,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>90220</v>
@@ -930,19 +945,19 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J5">
         <v>638.28</v>
       </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -950,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -965,19 +980,19 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J6">
         <v>1391.13</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -985,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>29483</v>
@@ -1000,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1011,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>7201</v>
@@ -1026,19 +1041,19 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J8">
         <v>228.43</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1046,7 +1061,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>77020</v>
@@ -1061,10 +1076,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1072,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>7201</v>
@@ -1087,10 +1102,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1098,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>7201</v>
@@ -1113,10 +1128,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1124,7 +1139,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>7201</v>
@@ -1139,19 +1154,19 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J12">
         <v>331.73</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1159,7 +1174,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>77020</v>
@@ -1174,10 +1189,10 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1185,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1200,10 +1215,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1211,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1226,10 +1241,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1237,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>29483</v>
@@ -1252,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1263,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>29483</v>
@@ -1278,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1289,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>29483</v>
@@ -1304,19 +1319,19 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J18">
         <v>1148.94</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1324,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>7201</v>
@@ -1339,19 +1354,19 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J19">
         <v>2094.3</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1359,7 +1374,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>29483</v>
@@ -1374,19 +1389,19 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J20">
         <v>1220.31</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1394,7 +1409,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>7201</v>
@@ -1409,19 +1424,19 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J21">
         <v>2285.01</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1429,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>7201</v>
@@ -1444,19 +1459,19 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J22">
         <v>2285.01</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1464,7 +1479,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>7201</v>
@@ -1479,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1490,7 +1505,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1505,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1516,7 +1531,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1531,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1542,7 +1557,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>7201</v>
@@ -1557,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1568,7 +1583,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1583,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1594,7 +1609,7 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1609,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1620,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1635,10 +1650,10 @@
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1646,7 +1661,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -1661,19 +1676,19 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I30" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J30">
         <v>827.1900000000001</v>
       </c>
       <c r="K30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1681,7 +1696,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1696,10 +1711,10 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1707,7 +1722,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -1722,19 +1737,19 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H32" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I32" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J32">
         <v>1451.97</v>
       </c>
       <c r="K32" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1742,7 +1757,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -1757,19 +1772,19 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H33" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I33" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J33">
         <v>827.1900000000001</v>
       </c>
       <c r="K33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1777,7 +1792,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1792,10 +1807,10 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1803,7 +1818,7 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>7201</v>
@@ -1818,19 +1833,19 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I35" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J35">
         <v>1451.97</v>
       </c>
       <c r="K35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1838,7 +1853,7 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1853,10 +1868,10 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1864,7 +1879,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>90220</v>
@@ -1879,19 +1894,19 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H37" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J37">
         <v>1391.13</v>
       </c>
       <c r="K37" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1899,7 +1914,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>90220</v>
@@ -1914,19 +1929,19 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J38">
         <v>905.52</v>
       </c>
       <c r="K38" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1934,7 +1949,7 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1949,10 +1964,10 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H39" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1960,7 +1975,7 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1975,10 +1990,10 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1986,7 +2001,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>7201</v>
@@ -2001,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H41" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2012,7 +2027,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>7201</v>
@@ -2027,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H42" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2038,7 +2053,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>7201</v>
@@ -2053,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H43" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2064,7 +2079,7 @@
         <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>7201</v>
@@ -2079,19 +2094,19 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I44" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J44">
         <v>478.71</v>
       </c>
       <c r="K44" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2099,7 +2114,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>7201</v>
@@ -2114,19 +2129,19 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H45" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I45" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J45">
         <v>478.71</v>
       </c>
       <c r="K45" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2134,7 +2149,7 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>29483</v>
@@ -2149,19 +2164,19 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H46" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I46" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J46">
         <v>594.48</v>
       </c>
       <c r="K46" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2169,7 +2184,7 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>29483</v>
@@ -2184,19 +2199,19 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H47" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I47" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J47">
         <v>299.88</v>
       </c>
       <c r="K47" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2204,7 +2219,7 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -2219,19 +2234,19 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H48" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I48" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J48">
         <v>401.77</v>
       </c>
       <c r="K48" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2239,7 +2254,7 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -2254,19 +2269,19 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H49" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I49" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J49">
         <v>299.88</v>
       </c>
       <c r="K49" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2274,7 +2289,7 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>29483</v>
@@ -2289,19 +2304,19 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H50" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I50" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J50">
         <v>299.88</v>
       </c>
       <c r="K50" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2309,7 +2324,7 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -2324,19 +2339,19 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H51" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I51" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J51">
         <v>478.71</v>
       </c>
       <c r="K51" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2344,7 +2359,7 @@
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>29483</v>
@@ -2359,19 +2374,19 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H52" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I52" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J52">
         <v>299.01</v>
       </c>
       <c r="K52" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2379,7 +2394,7 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C53">
         <v>29483</v>
@@ -2394,19 +2409,19 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H53" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I53" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J53">
         <v>643.77</v>
       </c>
       <c r="K53" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2414,7 +2429,7 @@
         <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -2429,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H54" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2440,7 +2455,7 @@
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -2455,19 +2470,19 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H55" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I55" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J55">
         <v>331.73</v>
       </c>
       <c r="K55" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2475,7 +2490,7 @@
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -2490,19 +2505,19 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H56" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I56" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J56">
         <v>537.5599999999999</v>
       </c>
       <c r="K56" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2510,7 +2525,7 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C57">
         <v>90220</v>
@@ -2525,19 +2540,19 @@
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H57" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I57" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J57">
         <v>568.7</v>
       </c>
       <c r="K57" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2545,7 +2560,7 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C58">
         <v>90220</v>
@@ -2560,19 +2575,19 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H58" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I58" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J58">
         <v>578.4400000000001</v>
       </c>
       <c r="K58" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2580,7 +2595,7 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -2595,19 +2610,19 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H59" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I59" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J59">
         <v>331.73</v>
       </c>
       <c r="K59" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2615,7 +2630,7 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -2630,19 +2645,19 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H60" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I60" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J60">
         <v>1080.48</v>
       </c>
       <c r="K60" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2650,7 +2665,7 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C61">
         <v>7201</v>
@@ -2665,19 +2680,19 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H61" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I61" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J61">
         <v>331.73</v>
       </c>
       <c r="K61" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2685,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C62">
         <v>7201</v>
@@ -2700,19 +2715,19 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H62" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I62" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J62">
         <v>1080.48</v>
       </c>
       <c r="K62" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2720,7 +2735,7 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C63">
         <v>90220</v>
@@ -2735,19 +2750,19 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H63" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I63" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J63">
         <v>824.79</v>
       </c>
       <c r="K63" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2755,7 +2770,7 @@
         <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C64">
         <v>90220</v>
@@ -2770,19 +2785,19 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H64" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I64" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J64">
         <v>568.7</v>
       </c>
       <c r="K64" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2790,7 +2805,7 @@
         <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C65">
         <v>90220</v>
@@ -2805,19 +2820,19 @@
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H65" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I65" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J65">
         <v>578.4400000000001</v>
       </c>
       <c r="K65" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2825,7 +2840,7 @@
         <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C66">
         <v>90220</v>
@@ -2840,19 +2855,19 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H66" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I66" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J66">
         <v>824.79</v>
       </c>
       <c r="K66" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2860,7 +2875,7 @@
         <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C67">
         <v>7201</v>
@@ -2875,19 +2890,19 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H67" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I67" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J67">
         <v>331.73</v>
       </c>
       <c r="K67" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2895,7 +2910,7 @@
         <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C68">
         <v>7201</v>
@@ -2910,19 +2925,19 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H68" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I68" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J68">
         <v>537.5599999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2930,7 +2945,7 @@
         <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C69">
         <v>29483</v>
@@ -2945,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H69" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2956,7 +2971,7 @@
         <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C70">
         <v>29483</v>
@@ -2971,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H70" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2982,7 +2997,7 @@
         <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C71">
         <v>90220</v>
@@ -2997,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H71" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3008,7 +3023,7 @@
         <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C72">
         <v>7201</v>
@@ -3023,19 +3038,19 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H72" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I72" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J72">
         <v>663.39</v>
       </c>
       <c r="K72" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3043,7 +3058,7 @@
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C73">
         <v>29483</v>
@@ -3058,19 +3073,19 @@
         <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H73" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J73">
         <v>833.58</v>
       </c>
       <c r="K73" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3078,7 +3093,7 @@
         <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C74">
         <v>7201</v>
@@ -3093,19 +3108,19 @@
         <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H74" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J74">
         <v>1009.71</v>
       </c>
       <c r="K74" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3113,7 +3128,7 @@
         <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C75">
         <v>29483</v>
@@ -3128,19 +3143,19 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H75" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I75" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J75">
         <v>350.66</v>
       </c>
       <c r="K75" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3148,14 +3163,14 @@
         <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" t="s">
         <v>113</v>
       </c>
+      <c r="C76">
+        <v>29483</v>
+      </c>
+      <c r="D76">
+        <v>30096</v>
+      </c>
       <c r="E76">
         <v>0</v>
       </c>
@@ -3163,10 +3178,106 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
+        <v>120</v>
+      </c>
+      <c r="H76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77">
+        <v>29483</v>
+      </c>
+      <c r="D77">
+        <v>30096</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>120</v>
+      </c>
+      <c r="H77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" t="s">
         <v>115</v>
       </c>
-      <c r="H76" t="s">
+      <c r="C78">
+        <v>7201</v>
+      </c>
+      <c r="D78">
+        <v>15672</v>
+      </c>
+      <c r="E78">
+        <v>750</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>119</v>
+      </c>
+      <c r="H78" t="s">
+        <v>119</v>
+      </c>
+      <c r="I78" t="s">
+        <v>124</v>
+      </c>
+      <c r="J78">
+        <v>532.35</v>
+      </c>
+      <c r="K78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" t="s">
         <v>117</v>
+      </c>
+      <c r="D79" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79">
+        <v>225</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>119</v>
+      </c>
+      <c r="H79" t="s">
+        <v>119</v>
+      </c>
+      <c r="I79" t="s">
+        <v>125</v>
+      </c>
+      <c r="J79">
+        <v>478.71</v>
+      </c>
+      <c r="K79" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="157">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -49,6 +49,15 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>FBA Code</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -133,6 +142,15 @@
     <t>CMM0911LCL0001</t>
   </si>
   <si>
+    <t>CMM0914LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0916LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0878LCL0003</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -367,10 +385,28 @@
     <t>2025-08-28 09:53:39</t>
   </si>
   <si>
+    <t>2025-08-28 12:07:15</t>
+  </si>
+  <si>
+    <t>2025-08-29 11:18:34</t>
+  </si>
+  <si>
+    <t>2025-08-30 11:01:53</t>
+  </si>
+  <si>
+    <t>2025-09-01 08:14:47</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:11:09</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:16:49</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>15672</t>
+    <t>18447</t>
   </si>
   <si>
     <t>Success</t>
@@ -423,11 +459,65 @@
   <si>
     <t>API</t>
   </si>
+  <si>
+    <t>API STATIC DATA</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0056_20250828120709</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0001_20250829111820</t>
+  </si>
+  <si>
+    <t>CMM0916LCL0002_20250830110140</t>
+  </si>
+  <si>
+    <t>CMM0878LCL0003_20250901081446</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0073_20250902071052</t>
+  </si>
+  <si>
+    <t>CMM0077LCL0002_20250902071644</t>
+  </si>
+  <si>
+    <t>ATL9</t>
+  </si>
+  <si>
+    <t>HIA1</t>
+  </si>
+  <si>
+    <t>IUSR</t>
+  </si>
+  <si>
+    <t>LBE1</t>
+  </si>
+  <si>
+    <t>MEM6</t>
+  </si>
+  <si>
+    <t>WBW2</t>
+  </si>
+  <si>
+    <t>28-08-2025</t>
+  </si>
+  <si>
+    <t>29-08-2025</t>
+  </si>
+  <si>
+    <t>30-08-2025</t>
+  </si>
+  <si>
+    <t>02-09-2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -480,11 +570,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,13 +870,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,13 +910,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -840,27 +940,27 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J2">
         <v>546.16</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>7201</v>
@@ -875,27 +975,27 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J3">
         <v>2033.46</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>90220</v>
@@ -910,27 +1010,27 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J4">
         <v>1314.23</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>90220</v>
@@ -945,27 +1045,27 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J5">
         <v>638.28</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -980,27 +1080,27 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J6">
         <v>1391.13</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>29483</v>
@@ -1015,18 +1115,18 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>7201</v>
@@ -1041,27 +1141,27 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J8">
         <v>228.43</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>77020</v>
@@ -1076,18 +1176,18 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>7201</v>
@@ -1102,18 +1202,18 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>7201</v>
@@ -1128,18 +1228,18 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>7201</v>
@@ -1154,27 +1254,27 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J12">
         <v>331.73</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>77020</v>
@@ -1189,18 +1289,18 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1215,18 +1315,18 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1241,18 +1341,18 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>29483</v>
@@ -1267,18 +1367,18 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>29483</v>
@@ -1293,18 +1393,18 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>29483</v>
@@ -1319,27 +1419,27 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I18" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J18">
         <v>1148.94</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>7201</v>
@@ -1354,27 +1454,27 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J19">
         <v>2094.3</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>29483</v>
@@ -1389,27 +1489,27 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J20">
         <v>1220.31</v>
       </c>
       <c r="K20" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>7201</v>
@@ -1424,27 +1524,27 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J21">
         <v>2285.01</v>
       </c>
       <c r="K21" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>7201</v>
@@ -1459,27 +1559,27 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J22">
         <v>2285.01</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <v>7201</v>
@@ -1494,18 +1594,18 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1520,18 +1620,18 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1546,18 +1646,18 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>7201</v>
@@ -1572,18 +1672,18 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1598,18 +1698,18 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1624,18 +1724,18 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1650,18 +1750,18 @@
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -1676,27 +1776,27 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H30" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J30">
         <v>827.1900000000001</v>
       </c>
       <c r="K30" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1711,18 +1811,18 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -1737,27 +1837,27 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H32" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J32">
         <v>1451.97</v>
       </c>
       <c r="K32" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -1772,27 +1872,27 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I33" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J33">
         <v>827.1900000000001</v>
       </c>
       <c r="K33" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1807,18 +1907,18 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C35">
         <v>7201</v>
@@ -1833,27 +1933,27 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I35" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J35">
         <v>1451.97</v>
       </c>
       <c r="K35" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1868,18 +1968,18 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C37">
         <v>90220</v>
@@ -1894,27 +1994,27 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I37" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J37">
         <v>1391.13</v>
       </c>
       <c r="K37" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>90220</v>
@@ -1929,27 +2029,27 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H38" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I38" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J38">
         <v>905.52</v>
       </c>
       <c r="K38" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1964,18 +2064,18 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H39" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1990,18 +2090,18 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H40" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>7201</v>
@@ -2016,18 +2116,18 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H41" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <v>7201</v>
@@ -2042,18 +2142,18 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <v>7201</v>
@@ -2068,18 +2168,18 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C44">
         <v>7201</v>
@@ -2094,27 +2194,27 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H44" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J44">
         <v>478.71</v>
       </c>
       <c r="K44" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C45">
         <v>7201</v>
@@ -2129,27 +2229,27 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H45" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J45">
         <v>478.71</v>
       </c>
       <c r="K45" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C46">
         <v>29483</v>
@@ -2164,27 +2264,27 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H46" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J46">
         <v>594.48</v>
       </c>
       <c r="K46" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C47">
         <v>29483</v>
@@ -2199,27 +2299,27 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H47" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J47">
         <v>299.88</v>
       </c>
       <c r="K47" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -2234,27 +2334,27 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H48" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I48" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J48">
         <v>401.77</v>
       </c>
       <c r="K48" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -2269,27 +2369,27 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H49" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I49" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J49">
         <v>299.88</v>
       </c>
       <c r="K49" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C50">
         <v>29483</v>
@@ -2304,27 +2404,27 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H50" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I50" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J50">
         <v>299.88</v>
       </c>
       <c r="K50" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -2339,27 +2439,27 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H51" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I51" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J51">
         <v>478.71</v>
       </c>
       <c r="K51" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C52">
         <v>29483</v>
@@ -2374,27 +2474,27 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H52" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I52" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J52">
         <v>299.01</v>
       </c>
       <c r="K52" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C53">
         <v>29483</v>
@@ -2409,27 +2509,27 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H53" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I53" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J53">
         <v>643.77</v>
       </c>
       <c r="K53" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -2444,18 +2544,18 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H54" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -2470,27 +2570,27 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H55" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I55" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J55">
         <v>331.73</v>
       </c>
       <c r="K55" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -2505,27 +2605,27 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H56" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I56" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J56">
         <v>537.5599999999999</v>
       </c>
       <c r="K56" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C57">
         <v>90220</v>
@@ -2540,27 +2640,27 @@
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H57" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I57" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J57">
         <v>568.7</v>
       </c>
       <c r="K57" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C58">
         <v>90220</v>
@@ -2575,27 +2675,27 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H58" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I58" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J58">
         <v>578.4400000000001</v>
       </c>
       <c r="K58" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -2610,27 +2710,27 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H59" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I59" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J59">
         <v>331.73</v>
       </c>
       <c r="K59" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -2645,27 +2745,27 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H60" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I60" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J60">
         <v>1080.48</v>
       </c>
       <c r="K60" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C61">
         <v>7201</v>
@@ -2680,27 +2780,27 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H61" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I61" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J61">
         <v>331.73</v>
       </c>
       <c r="K61" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C62">
         <v>7201</v>
@@ -2715,27 +2815,27 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H62" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I62" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J62">
         <v>1080.48</v>
       </c>
       <c r="K62" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C63">
         <v>90220</v>
@@ -2750,27 +2850,27 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H63" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J63">
         <v>824.79</v>
       </c>
       <c r="K63" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C64">
         <v>90220</v>
@@ -2785,27 +2885,27 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H64" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J64">
         <v>568.7</v>
       </c>
       <c r="K64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C65">
         <v>90220</v>
@@ -2820,27 +2920,27 @@
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H65" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I65" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J65">
         <v>578.4400000000001</v>
       </c>
       <c r="K65" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C66">
         <v>90220</v>
@@ -2855,27 +2955,27 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H66" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I66" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J66">
         <v>824.79</v>
       </c>
       <c r="K66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C67">
         <v>7201</v>
@@ -2890,27 +2990,27 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H67" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I67" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J67">
         <v>331.73</v>
       </c>
       <c r="K67" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C68">
         <v>7201</v>
@@ -2925,27 +3025,27 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H68" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I68" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J68">
         <v>537.5599999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C69">
         <v>29483</v>
@@ -2960,18 +3060,18 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C70">
         <v>29483</v>
@@ -2986,18 +3086,18 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H70" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C71">
         <v>90220</v>
@@ -3012,18 +3112,18 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H71" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C72">
         <v>7201</v>
@@ -3038,27 +3138,27 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H72" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I72" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J72">
         <v>663.39</v>
       </c>
       <c r="K72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C73">
         <v>29483</v>
@@ -3073,27 +3173,27 @@
         <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H73" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I73" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J73">
         <v>833.58</v>
       </c>
       <c r="K73" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C74">
         <v>7201</v>
@@ -3108,27 +3208,27 @@
         <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H74" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I74" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J74">
         <v>1009.71</v>
       </c>
       <c r="K74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C75">
         <v>29483</v>
@@ -3143,27 +3243,27 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H75" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I75" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J75">
         <v>350.66</v>
       </c>
       <c r="K75" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C76">
         <v>29483</v>
@@ -3178,18 +3278,18 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
+        <v>132</v>
+      </c>
+      <c r="H76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
         <v>120</v>
-      </c>
-      <c r="H76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" t="s">
-        <v>114</v>
       </c>
       <c r="C77">
         <v>29483</v>
@@ -3204,18 +3304,18 @@
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H77" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C78">
         <v>7201</v>
@@ -3230,33 +3330,33 @@
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H78" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J78">
         <v>532.35</v>
       </c>
       <c r="K78" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="C79">
+        <v>7201</v>
+      </c>
+      <c r="D79">
+        <v>15672</v>
       </c>
       <c r="E79">
         <v>225</v>
@@ -3265,19 +3365,283 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H79" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J79">
         <v>478.71</v>
       </c>
       <c r="K79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80">
+        <v>29483</v>
+      </c>
+      <c r="D80">
+        <v>30096</v>
+      </c>
+      <c r="E80">
+        <v>4480</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>131</v>
+      </c>
+      <c r="H80" t="s">
+        <v>131</v>
+      </c>
+      <c r="I80" t="s">
+        <v>136</v>
+      </c>
+      <c r="J80">
+        <v>1047.15</v>
+      </c>
+      <c r="K80" t="s">
+        <v>139</v>
+      </c>
+      <c r="L80" t="s">
+        <v>141</v>
+      </c>
+      <c r="M80" t="s">
+        <v>147</v>
+      </c>
+      <c r="N80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81">
+        <v>7201</v>
+      </c>
+      <c r="D81">
+        <v>17057</v>
+      </c>
+      <c r="E81">
+        <v>566</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>131</v>
+      </c>
+      <c r="H81" t="s">
+        <v>131</v>
+      </c>
+      <c r="I81" t="s">
+        <v>136</v>
+      </c>
+      <c r="J81">
+        <v>275.96</v>
+      </c>
+      <c r="K81" t="s">
+        <v>139</v>
+      </c>
+      <c r="L81" t="s">
+        <v>142</v>
+      </c>
+      <c r="M81" t="s">
+        <v>148</v>
+      </c>
+      <c r="N81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82">
+        <v>29483</v>
+      </c>
+      <c r="D82">
+        <v>29330</v>
+      </c>
+      <c r="E82">
+        <v>1804</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82" t="s">
+        <v>131</v>
+      </c>
+      <c r="H82" t="s">
+        <v>131</v>
+      </c>
+      <c r="I82" t="s">
+        <v>136</v>
+      </c>
+      <c r="J82">
+        <v>317.68</v>
+      </c>
+      <c r="K82" t="s">
+        <v>139</v>
+      </c>
+      <c r="L82" t="s">
+        <v>143</v>
+      </c>
+      <c r="M82" t="s">
+        <v>149</v>
+      </c>
+      <c r="N82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83">
+        <v>7201</v>
+      </c>
+      <c r="D83">
+        <v>15672</v>
+      </c>
+      <c r="E83">
+        <v>795</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" t="s">
+        <v>131</v>
+      </c>
+      <c r="I83" t="s">
+        <v>137</v>
+      </c>
+      <c r="J83">
+        <v>1425.81</v>
+      </c>
+      <c r="K83" t="s">
+        <v>140</v>
+      </c>
+      <c r="L83" t="s">
+        <v>144</v>
+      </c>
+      <c r="M83" t="s">
+        <v>150</v>
+      </c>
+      <c r="N83" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
         <v>127</v>
+      </c>
+      <c r="C84">
+        <v>29483</v>
+      </c>
+      <c r="D84">
+        <v>38654</v>
+      </c>
+      <c r="E84">
+        <v>1374</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
+        <v>131</v>
+      </c>
+      <c r="H84" t="s">
+        <v>131</v>
+      </c>
+      <c r="I84" t="s">
+        <v>137</v>
+      </c>
+      <c r="J84">
+        <v>1502.37</v>
+      </c>
+      <c r="K84" t="s">
+        <v>139</v>
+      </c>
+      <c r="L84" t="s">
+        <v>145</v>
+      </c>
+      <c r="M84" t="s">
+        <v>151</v>
+      </c>
+      <c r="N84" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85">
+        <v>4971</v>
+      </c>
+      <c r="F85">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s">
+        <v>131</v>
+      </c>
+      <c r="H85" t="s">
+        <v>131</v>
+      </c>
+      <c r="I85" t="s">
+        <v>136</v>
+      </c>
+      <c r="J85">
+        <v>1009.71</v>
+      </c>
+      <c r="K85" t="s">
+        <v>139</v>
+      </c>
+      <c r="L85" t="s">
+        <v>146</v>
+      </c>
+      <c r="M85" t="s">
+        <v>152</v>
+      </c>
+      <c r="N85" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="226">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -151,6 +151,45 @@
     <t>CMM0878LCL0003</t>
   </si>
   <si>
+    <t>CMM0800LCL0076</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0078</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0009</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0014</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0015</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0012</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0923LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -403,10 +442,79 @@
     <t>2025-09-02 07:16:49</t>
   </si>
   <si>
+    <t>2025-09-03 08:36:20</t>
+  </si>
+  <si>
+    <t>2025-09-03 08:37:00</t>
+  </si>
+  <si>
+    <t>2025-09-03 10:51:23</t>
+  </si>
+  <si>
+    <t>2025-09-03 10:52:02</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:09:12</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:09:34</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:09:54</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:14:38</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:15:00</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:15:20</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:17:31</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:17:58</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:42:34</t>
+  </si>
+  <si>
+    <t>2025-09-04 12:55:25</t>
+  </si>
+  <si>
+    <t>2025-09-04 13:38:03</t>
+  </si>
+  <si>
+    <t>2025-09-04 15:39:24</t>
+  </si>
+  <si>
+    <t>2025-09-05 09:06:02</t>
+  </si>
+  <si>
+    <t>2025-09-05 11:38:48</t>
+  </si>
+  <si>
+    <t>2025-09-06 13:35:37</t>
+  </si>
+  <si>
+    <t>2025-09-09 17:08:41</t>
+  </si>
+  <si>
+    <t>2025-09-11 11:07:39</t>
+  </si>
+  <si>
+    <t>2025-09-12 16:01:26</t>
+  </si>
+  <si>
+    <t>2025-09-18 02:53:08</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>18447</t>
+    <t>15672</t>
   </si>
   <si>
     <t>Success</t>
@@ -457,6 +565,9 @@
     <t>Frontline Freight</t>
   </si>
   <si>
+    <t>Estes Express</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
@@ -481,6 +592,54 @@
     <t>CMM0077LCL0002_20250902071644</t>
   </si>
   <si>
+    <t>CMM0246LCL0039_20250903083608</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0076_20250903105110</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077_20250903110900</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077_20250903111427</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077_20250903111730</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0078_20250903114223</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0009_20250904125511</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0014_20250904133750</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0015_20250904153923</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0012_20250905090547</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0006_20250905113833</t>
+  </si>
+  <si>
+    <t>CMM0923LCL0001_20250906133522</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128_20250909170828</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0007_20250911110739</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0002_20250912160116</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007_20250918025308</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -499,6 +658,36 @@
     <t>WBW2</t>
   </si>
   <si>
+    <t>AGS2</t>
+  </si>
+  <si>
+    <t>TEB9</t>
+  </si>
+  <si>
+    <t>FTW1</t>
+  </si>
+  <si>
+    <t>SMF3</t>
+  </si>
+  <si>
+    <t>MEM1</t>
+  </si>
+  <si>
+    <t>FWA4</t>
+  </si>
+  <si>
+    <t>LAN2</t>
+  </si>
+  <si>
+    <t>HEA2</t>
+  </si>
+  <si>
+    <t>RDU4</t>
+  </si>
+  <si>
+    <t>ABE8</t>
+  </si>
+  <si>
     <t>28-08-2025</t>
   </si>
   <si>
@@ -509,6 +698,24 @@
   </si>
   <si>
     <t>02-09-2025</t>
+  </si>
+  <si>
+    <t>03-09-2025</t>
+  </si>
+  <si>
+    <t>04-09-2025</t>
+  </si>
+  <si>
+    <t>05-09-2025</t>
+  </si>
+  <si>
+    <t>06-09-2025</t>
+  </si>
+  <si>
+    <t>09-09-2025</t>
+  </si>
+  <si>
+    <t>12-09-2025</t>
   </si>
 </sst>
 </file>
@@ -870,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -925,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -940,19 +1147,19 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J2">
         <v>546.16</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -960,7 +1167,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>7201</v>
@@ -975,19 +1182,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J3">
         <v>2033.46</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -995,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>90220</v>
@@ -1010,19 +1217,19 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J4">
         <v>1314.23</v>
       </c>
       <c r="K4" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1030,7 +1237,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>90220</v>
@@ -1045,19 +1252,19 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J5">
         <v>638.28</v>
       </c>
       <c r="K5" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1065,7 +1272,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -1080,19 +1287,19 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J6">
         <v>1391.13</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1100,7 +1307,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>29483</v>
@@ -1115,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1126,7 +1333,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>7201</v>
@@ -1141,19 +1348,19 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J8">
         <v>228.43</v>
       </c>
       <c r="K8" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1161,7 +1368,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>77020</v>
@@ -1176,10 +1383,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1187,7 +1394,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>7201</v>
@@ -1202,10 +1409,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1213,7 +1420,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>7201</v>
@@ -1228,10 +1435,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1239,7 +1446,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>7201</v>
@@ -1254,19 +1461,19 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H12" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J12">
         <v>331.73</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1274,7 +1481,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>77020</v>
@@ -1289,10 +1496,10 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1300,7 +1507,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1315,10 +1522,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H14" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1326,7 +1533,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1341,10 +1548,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1352,7 +1559,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>29483</v>
@@ -1367,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1378,7 +1585,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <v>29483</v>
@@ -1393,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1404,7 +1611,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>29483</v>
@@ -1419,19 +1626,19 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J18">
         <v>1148.94</v>
       </c>
       <c r="K18" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1439,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C19">
         <v>7201</v>
@@ -1454,19 +1661,19 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J19">
         <v>2094.3</v>
       </c>
       <c r="K19" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1474,7 +1681,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <v>29483</v>
@@ -1489,19 +1696,19 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J20">
         <v>1220.31</v>
       </c>
       <c r="K20" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1509,7 +1716,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C21">
         <v>7201</v>
@@ -1524,19 +1731,19 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I21" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J21">
         <v>2285.01</v>
       </c>
       <c r="K21" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1544,7 +1751,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>7201</v>
@@ -1559,19 +1766,19 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I22" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J22">
         <v>2285.01</v>
       </c>
       <c r="K22" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1579,7 +1786,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C23">
         <v>7201</v>
@@ -1594,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1605,7 +1812,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1620,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1631,7 +1838,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1646,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1657,7 +1864,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C26">
         <v>7201</v>
@@ -1672,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1683,7 +1890,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1698,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1709,7 +1916,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1724,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H28" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1735,7 +1942,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1750,10 +1957,10 @@
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H29" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1761,7 +1968,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -1776,19 +1983,19 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I30" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J30">
         <v>827.1900000000001</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1796,7 +2003,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1811,10 +2018,10 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H31" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1822,7 +2029,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -1837,19 +2044,19 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I32" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J32">
         <v>1451.97</v>
       </c>
       <c r="K32" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1857,7 +2064,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -1872,19 +2079,19 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J33">
         <v>827.1900000000001</v>
       </c>
       <c r="K33" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1892,7 +2099,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1907,10 +2114,10 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H34" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1918,7 +2125,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C35">
         <v>7201</v>
@@ -1933,19 +2140,19 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I35" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J35">
         <v>1451.97</v>
       </c>
       <c r="K35" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1953,7 +2160,7 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1968,10 +2175,10 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1979,7 +2186,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C37">
         <v>90220</v>
@@ -1994,19 +2201,19 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H37" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I37" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J37">
         <v>1391.13</v>
       </c>
       <c r="K37" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2014,7 +2221,7 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C38">
         <v>90220</v>
@@ -2029,19 +2236,19 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H38" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I38" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J38">
         <v>905.52</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2049,7 +2256,7 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2064,10 +2271,10 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H39" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2075,7 +2282,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2090,10 +2297,10 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H40" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2101,7 +2308,7 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C41">
         <v>7201</v>
@@ -2116,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2127,7 +2334,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C42">
         <v>7201</v>
@@ -2142,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2153,7 +2360,7 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C43">
         <v>7201</v>
@@ -2168,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2179,7 +2386,7 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C44">
         <v>7201</v>
@@ -2194,19 +2401,19 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H44" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I44" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="J44">
         <v>478.71</v>
       </c>
       <c r="K44" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2214,7 +2421,7 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C45">
         <v>7201</v>
@@ -2229,19 +2436,19 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H45" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I45" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="J45">
         <v>478.71</v>
       </c>
       <c r="K45" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2249,7 +2456,7 @@
         <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C46">
         <v>29483</v>
@@ -2264,19 +2471,19 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H46" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I46" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J46">
         <v>594.48</v>
       </c>
       <c r="K46" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2284,7 +2491,7 @@
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C47">
         <v>29483</v>
@@ -2299,19 +2506,19 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H47" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I47" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J47">
         <v>299.88</v>
       </c>
       <c r="K47" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2319,7 +2526,7 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -2334,19 +2541,19 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H48" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I48" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J48">
         <v>401.77</v>
       </c>
       <c r="K48" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2354,7 +2561,7 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -2369,19 +2576,19 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H49" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I49" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J49">
         <v>299.88</v>
       </c>
       <c r="K49" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2389,7 +2596,7 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C50">
         <v>29483</v>
@@ -2404,19 +2611,19 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H50" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I50" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J50">
         <v>299.88</v>
       </c>
       <c r="K50" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2424,7 +2631,7 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -2439,19 +2646,19 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H51" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I51" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="J51">
         <v>478.71</v>
       </c>
       <c r="K51" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2459,7 +2666,7 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C52">
         <v>29483</v>
@@ -2474,19 +2681,19 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H52" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I52" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J52">
         <v>299.01</v>
       </c>
       <c r="K52" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2494,7 +2701,7 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C53">
         <v>29483</v>
@@ -2509,19 +2716,19 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H53" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I53" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J53">
         <v>643.77</v>
       </c>
       <c r="K53" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2529,7 +2736,7 @@
         <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -2544,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H54" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2555,7 +2762,7 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -2570,19 +2777,19 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H55" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I55" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>331.73</v>
       </c>
       <c r="K55" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2590,7 +2797,7 @@
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -2605,19 +2812,19 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H56" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J56">
         <v>537.5599999999999</v>
       </c>
       <c r="K56" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2625,7 +2832,7 @@
         <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C57">
         <v>90220</v>
@@ -2640,19 +2847,19 @@
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H57" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I57" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J57">
         <v>568.7</v>
       </c>
       <c r="K57" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2660,7 +2867,7 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C58">
         <v>90220</v>
@@ -2675,19 +2882,19 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H58" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I58" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J58">
         <v>578.4400000000001</v>
       </c>
       <c r="K58" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2695,7 +2902,7 @@
         <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -2710,19 +2917,19 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H59" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I59" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J59">
         <v>331.73</v>
       </c>
       <c r="K59" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2730,7 +2937,7 @@
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -2745,19 +2952,19 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H60" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I60" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>1080.48</v>
       </c>
       <c r="K60" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2765,7 +2972,7 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C61">
         <v>7201</v>
@@ -2780,19 +2987,19 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H61" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I61" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J61">
         <v>331.73</v>
       </c>
       <c r="K61" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2800,7 +3007,7 @@
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C62">
         <v>7201</v>
@@ -2815,19 +3022,19 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H62" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I62" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="J62">
         <v>1080.48</v>
       </c>
       <c r="K62" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2835,7 +3042,7 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C63">
         <v>90220</v>
@@ -2850,19 +3057,19 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H63" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I63" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>824.79</v>
       </c>
       <c r="K63" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2870,7 +3077,7 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C64">
         <v>90220</v>
@@ -2885,19 +3092,19 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H64" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I64" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J64">
         <v>568.7</v>
       </c>
       <c r="K64" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -2905,7 +3112,7 @@
         <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C65">
         <v>90220</v>
@@ -2920,19 +3127,19 @@
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H65" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I65" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J65">
         <v>578.4400000000001</v>
       </c>
       <c r="K65" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -2940,7 +3147,7 @@
         <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C66">
         <v>90220</v>
@@ -2955,19 +3162,19 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H66" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I66" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="J66">
         <v>824.79</v>
       </c>
       <c r="K66" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -2975,7 +3182,7 @@
         <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C67">
         <v>7201</v>
@@ -2990,19 +3197,19 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H67" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I67" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J67">
         <v>331.73</v>
       </c>
       <c r="K67" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3010,7 +3217,7 @@
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C68">
         <v>7201</v>
@@ -3025,19 +3232,19 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H68" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I68" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J68">
         <v>537.5599999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3045,7 +3252,7 @@
         <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C69">
         <v>29483</v>
@@ -3060,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3071,7 +3278,7 @@
         <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C70">
         <v>29483</v>
@@ -3086,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H70" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3097,7 +3304,7 @@
         <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C71">
         <v>90220</v>
@@ -3112,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H71" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3123,7 +3330,7 @@
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C72">
         <v>7201</v>
@@ -3138,19 +3345,19 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H72" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I72" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J72">
         <v>663.39</v>
       </c>
       <c r="K72" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3158,7 +3365,7 @@
         <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C73">
         <v>29483</v>
@@ -3173,19 +3380,19 @@
         <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H73" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I73" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J73">
         <v>833.58</v>
       </c>
       <c r="K73" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3193,7 +3400,7 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C74">
         <v>7201</v>
@@ -3208,19 +3415,19 @@
         <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H74" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I74" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J74">
         <v>1009.71</v>
       </c>
       <c r="K74" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3228,7 +3435,7 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C75">
         <v>29483</v>
@@ -3243,19 +3450,19 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H75" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I75" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J75">
         <v>350.66</v>
       </c>
       <c r="K75" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3263,7 +3470,7 @@
         <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C76">
         <v>29483</v>
@@ -3278,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H76" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3289,7 +3496,7 @@
         <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C77">
         <v>29483</v>
@@ -3304,10 +3511,10 @@
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H77" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3315,7 +3522,7 @@
         <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C78">
         <v>7201</v>
@@ -3330,19 +3537,19 @@
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H78" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I78" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J78">
         <v>532.35</v>
       </c>
       <c r="K78" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3350,7 +3557,7 @@
         <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C79">
         <v>7201</v>
@@ -3365,19 +3572,19 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H79" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I79" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="J79">
         <v>478.71</v>
       </c>
       <c r="K79" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3385,7 +3592,7 @@
         <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C80">
         <v>29483</v>
@@ -3400,28 +3607,28 @@
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H80" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I80" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J80">
         <v>1047.15</v>
       </c>
       <c r="K80" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L80" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="M80" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="N80" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3429,7 +3636,7 @@
         <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C81">
         <v>7201</v>
@@ -3444,28 +3651,28 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H81" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I81" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J81">
         <v>275.96</v>
       </c>
       <c r="K81" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L81" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="M81" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="N81" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3473,7 +3680,7 @@
         <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C82">
         <v>29483</v>
@@ -3488,28 +3695,28 @@
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H82" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I82" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J82">
         <v>317.68</v>
       </c>
       <c r="K82" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L82" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="M82" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="N82" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3517,7 +3724,7 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C83">
         <v>7201</v>
@@ -3532,25 +3739,25 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H83" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I83" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="J83">
         <v>1425.81</v>
       </c>
       <c r="K83" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="L83" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="M83" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="N83" s="2">
         <v>45897</v>
@@ -3561,7 +3768,7 @@
         <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C84">
         <v>29483</v>
@@ -3576,28 +3783,28 @@
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H84" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I84" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="J84">
         <v>1502.37</v>
       </c>
       <c r="K84" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L84" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="M84" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="N84" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -3605,13 +3812,13 @@
         <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" t="s">
-        <v>129</v>
-      </c>
-      <c r="D85" t="s">
-        <v>130</v>
+        <v>141</v>
+      </c>
+      <c r="C85">
+        <v>7201</v>
+      </c>
+      <c r="D85">
+        <v>18447</v>
       </c>
       <c r="E85">
         <v>4971</v>
@@ -3620,28 +3827,1031 @@
         <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H85" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="I85" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="J85">
         <v>1009.71</v>
       </c>
       <c r="K85" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L85" t="s">
+        <v>183</v>
+      </c>
+      <c r="M85" t="s">
+        <v>205</v>
+      </c>
+      <c r="N85" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86">
+        <v>29483</v>
+      </c>
+      <c r="D86">
+        <v>30567</v>
+      </c>
+      <c r="E86">
+        <v>2000</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>168</v>
+      </c>
+      <c r="H86" t="s">
+        <v>169</v>
+      </c>
+      <c r="L86" t="s">
+        <v>184</v>
+      </c>
+      <c r="M86" t="s">
+        <v>206</v>
+      </c>
+      <c r="N86" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87">
+        <v>7201</v>
+      </c>
+      <c r="D87">
+        <v>8873</v>
+      </c>
+      <c r="E87">
+        <v>660</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>167</v>
+      </c>
+      <c r="H87" t="s">
+        <v>167</v>
+      </c>
+      <c r="I87" t="s">
+        <v>172</v>
+      </c>
+      <c r="J87">
+        <v>226.77</v>
+      </c>
+      <c r="K87" t="s">
+        <v>177</v>
+      </c>
+      <c r="L87" t="s">
+        <v>184</v>
+      </c>
+      <c r="M87" t="s">
+        <v>207</v>
+      </c>
+      <c r="N87" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88">
+        <v>90220</v>
+      </c>
+      <c r="D88">
+        <v>75241</v>
+      </c>
+      <c r="E88">
+        <v>1273</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>167</v>
+      </c>
+      <c r="H88" t="s">
+        <v>167</v>
+      </c>
+      <c r="I88" t="s">
+        <v>174</v>
+      </c>
+      <c r="J88">
+        <v>720.76</v>
+      </c>
+      <c r="K88" t="s">
+        <v>176</v>
+      </c>
+      <c r="L88" t="s">
+        <v>185</v>
+      </c>
+      <c r="M88" t="s">
+        <v>208</v>
+      </c>
+      <c r="N88" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89">
+        <v>90220</v>
+      </c>
+      <c r="D89">
+        <v>95206</v>
+      </c>
+      <c r="E89">
+        <v>1436</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>167</v>
+      </c>
+      <c r="H89" t="s">
+        <v>167</v>
+      </c>
+      <c r="I89" t="s">
+        <v>175</v>
+      </c>
+      <c r="J89">
+        <v>925.47</v>
+      </c>
+      <c r="K89" t="s">
+        <v>176</v>
+      </c>
+      <c r="L89" t="s">
+        <v>185</v>
+      </c>
+      <c r="M89" t="s">
+        <v>209</v>
+      </c>
+      <c r="N89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
         <v>146</v>
       </c>
-      <c r="M85" t="s">
+      <c r="C90">
+        <v>29483</v>
+      </c>
+      <c r="D90">
+        <v>38118</v>
+      </c>
+      <c r="E90">
+        <v>1502</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>167</v>
+      </c>
+      <c r="H90" t="s">
+        <v>167</v>
+      </c>
+      <c r="I90" t="s">
+        <v>175</v>
+      </c>
+      <c r="J90">
+        <v>496.08</v>
+      </c>
+      <c r="K90" t="s">
+        <v>176</v>
+      </c>
+      <c r="L90" t="s">
+        <v>186</v>
+      </c>
+      <c r="M90" t="s">
+        <v>210</v>
+      </c>
+      <c r="N90" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91">
+        <v>7201</v>
+      </c>
+      <c r="D91">
+        <v>46809</v>
+      </c>
+      <c r="E91">
+        <v>1501</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>167</v>
+      </c>
+      <c r="H91" t="s">
+        <v>167</v>
+      </c>
+      <c r="I91" t="s">
+        <v>173</v>
+      </c>
+      <c r="J91">
+        <v>1704.49</v>
+      </c>
+      <c r="K91" t="s">
+        <v>177</v>
+      </c>
+      <c r="L91" t="s">
+        <v>186</v>
+      </c>
+      <c r="M91" t="s">
+        <v>211</v>
+      </c>
+      <c r="N91" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92">
+        <v>7201</v>
+      </c>
+      <c r="D92">
+        <v>48917</v>
+      </c>
+      <c r="E92">
+        <v>856</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92" t="s">
+        <v>167</v>
+      </c>
+      <c r="H92" t="s">
+        <v>167</v>
+      </c>
+      <c r="I92" t="s">
+        <v>172</v>
+      </c>
+      <c r="J92">
+        <v>772.2</v>
+      </c>
+      <c r="K92" t="s">
+        <v>177</v>
+      </c>
+      <c r="L92" t="s">
+        <v>186</v>
+      </c>
+      <c r="M92" t="s">
+        <v>212</v>
+      </c>
+      <c r="N92" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93">
+        <v>29483</v>
+      </c>
+      <c r="D93">
+        <v>38118</v>
+      </c>
+      <c r="E93">
+        <v>1502</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>167</v>
+      </c>
+      <c r="H93" t="s">
+        <v>167</v>
+      </c>
+      <c r="I93" t="s">
+        <v>175</v>
+      </c>
+      <c r="J93">
+        <v>496.08</v>
+      </c>
+      <c r="K93" t="s">
+        <v>176</v>
+      </c>
+      <c r="L93" t="s">
+        <v>187</v>
+      </c>
+      <c r="M93" t="s">
+        <v>210</v>
+      </c>
+      <c r="N93" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94">
+        <v>7201</v>
+      </c>
+      <c r="D94">
+        <v>46809</v>
+      </c>
+      <c r="E94">
+        <v>1501</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>167</v>
+      </c>
+      <c r="H94" t="s">
+        <v>167</v>
+      </c>
+      <c r="I94" t="s">
+        <v>173</v>
+      </c>
+      <c r="J94">
+        <v>1704.49</v>
+      </c>
+      <c r="K94" t="s">
+        <v>177</v>
+      </c>
+      <c r="L94" t="s">
+        <v>187</v>
+      </c>
+      <c r="M94" t="s">
+        <v>211</v>
+      </c>
+      <c r="N94" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C95">
+        <v>7201</v>
+      </c>
+      <c r="D95">
+        <v>48917</v>
+      </c>
+      <c r="E95">
+        <v>856</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95" t="s">
+        <v>167</v>
+      </c>
+      <c r="H95" t="s">
+        <v>167</v>
+      </c>
+      <c r="I95" t="s">
+        <v>172</v>
+      </c>
+      <c r="J95">
+        <v>772.2</v>
+      </c>
+      <c r="K95" t="s">
+        <v>177</v>
+      </c>
+      <c r="L95" t="s">
+        <v>187</v>
+      </c>
+      <c r="M95" t="s">
+        <v>212</v>
+      </c>
+      <c r="N95" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" t="s">
         <v>152</v>
       </c>
-      <c r="N85" t="s">
+      <c r="C96">
+        <v>7201</v>
+      </c>
+      <c r="D96">
+        <v>46809</v>
+      </c>
+      <c r="E96">
+        <v>1501</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>167</v>
+      </c>
+      <c r="H96" t="s">
+        <v>167</v>
+      </c>
+      <c r="I96" t="s">
+        <v>173</v>
+      </c>
+      <c r="J96">
+        <v>1704.49</v>
+      </c>
+      <c r="K96" t="s">
+        <v>177</v>
+      </c>
+      <c r="L96" t="s">
+        <v>188</v>
+      </c>
+      <c r="M96" t="s">
+        <v>211</v>
+      </c>
+      <c r="N96" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97">
+        <v>7201</v>
+      </c>
+      <c r="D97">
+        <v>48917</v>
+      </c>
+      <c r="E97">
+        <v>856</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>167</v>
+      </c>
+      <c r="H97" t="s">
+        <v>167</v>
+      </c>
+      <c r="I97" t="s">
+        <v>172</v>
+      </c>
+      <c r="J97">
+        <v>772.2</v>
+      </c>
+      <c r="K97" t="s">
+        <v>177</v>
+      </c>
+      <c r="L97" t="s">
+        <v>188</v>
+      </c>
+      <c r="M97" t="s">
+        <v>212</v>
+      </c>
+      <c r="N97" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98">
+        <v>29483</v>
+      </c>
+      <c r="D98">
+        <v>38118</v>
+      </c>
+      <c r="E98">
+        <v>1502</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>167</v>
+      </c>
+      <c r="H98" t="s">
+        <v>167</v>
+      </c>
+      <c r="I98" t="s">
+        <v>175</v>
+      </c>
+      <c r="J98">
+        <v>496.08</v>
+      </c>
+      <c r="K98" t="s">
+        <v>176</v>
+      </c>
+      <c r="L98" t="s">
+        <v>189</v>
+      </c>
+      <c r="M98" t="s">
+        <v>210</v>
+      </c>
+      <c r="N98" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99">
+        <v>7201</v>
+      </c>
+      <c r="D99">
+        <v>18031</v>
+      </c>
+      <c r="E99">
+        <v>90</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>167</v>
+      </c>
+      <c r="H99" t="s">
+        <v>167</v>
+      </c>
+      <c r="I99" t="s">
+        <v>175</v>
+      </c>
+      <c r="J99">
+        <v>227.44</v>
+      </c>
+      <c r="K99" t="s">
+        <v>176</v>
+      </c>
+      <c r="L99" t="s">
+        <v>190</v>
+      </c>
+      <c r="M99" t="s">
+        <v>213</v>
+      </c>
+      <c r="N99" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" t="s">
         <v>156</v>
+      </c>
+      <c r="C100">
+        <v>7201</v>
+      </c>
+      <c r="D100">
+        <v>18447</v>
+      </c>
+      <c r="E100">
+        <v>513</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>167</v>
+      </c>
+      <c r="H100" t="s">
+        <v>167</v>
+      </c>
+      <c r="I100" t="s">
+        <v>175</v>
+      </c>
+      <c r="J100">
+        <v>327.35</v>
+      </c>
+      <c r="K100" t="s">
+        <v>176</v>
+      </c>
+      <c r="L100" t="s">
+        <v>191</v>
+      </c>
+      <c r="M100" t="s">
+        <v>205</v>
+      </c>
+      <c r="N100" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101">
+        <v>7201</v>
+      </c>
+      <c r="D101">
+        <v>15672</v>
+      </c>
+      <c r="E101">
+        <v>513</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>167</v>
+      </c>
+      <c r="H101" t="s">
+        <v>167</v>
+      </c>
+      <c r="I101" t="s">
+        <v>172</v>
+      </c>
+      <c r="J101">
+        <v>532.35</v>
+      </c>
+      <c r="K101" t="s">
+        <v>177</v>
+      </c>
+      <c r="L101" t="s">
+        <v>192</v>
+      </c>
+      <c r="M101" t="s">
+        <v>203</v>
+      </c>
+      <c r="N101" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102">
+        <v>7201</v>
+      </c>
+      <c r="D102">
+        <v>18031</v>
+      </c>
+      <c r="E102">
+        <v>90</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>167</v>
+      </c>
+      <c r="H102" t="s">
+        <v>167</v>
+      </c>
+      <c r="I102" t="s">
+        <v>175</v>
+      </c>
+      <c r="J102">
+        <v>227.44</v>
+      </c>
+      <c r="K102" t="s">
+        <v>176</v>
+      </c>
+      <c r="L102" t="s">
+        <v>193</v>
+      </c>
+      <c r="M102" t="s">
+        <v>213</v>
+      </c>
+      <c r="N102" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103">
+        <v>7201</v>
+      </c>
+      <c r="D103">
+        <v>18031</v>
+      </c>
+      <c r="E103">
+        <v>726</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103" t="s">
+        <v>167</v>
+      </c>
+      <c r="H103" t="s">
+        <v>167</v>
+      </c>
+      <c r="I103" t="s">
+        <v>175</v>
+      </c>
+      <c r="J103">
+        <v>227.44</v>
+      </c>
+      <c r="K103" t="s">
+        <v>176</v>
+      </c>
+      <c r="L103" t="s">
+        <v>194</v>
+      </c>
+      <c r="M103" t="s">
+        <v>213</v>
+      </c>
+      <c r="N103" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104">
+        <v>29483</v>
+      </c>
+      <c r="D104">
+        <v>28303</v>
+      </c>
+      <c r="E104">
+        <v>496</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>167</v>
+      </c>
+      <c r="H104" t="s">
+        <v>167</v>
+      </c>
+      <c r="I104" t="s">
+        <v>173</v>
+      </c>
+      <c r="J104">
+        <v>279.08</v>
+      </c>
+      <c r="K104" t="s">
+        <v>176</v>
+      </c>
+      <c r="L104" t="s">
+        <v>195</v>
+      </c>
+      <c r="M104" t="s">
+        <v>214</v>
+      </c>
+      <c r="N104" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105">
+        <v>7201</v>
+      </c>
+      <c r="D105">
+        <v>18031</v>
+      </c>
+      <c r="E105">
+        <v>227</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H105" t="s">
+        <v>167</v>
+      </c>
+      <c r="I105" t="s">
+        <v>175</v>
+      </c>
+      <c r="J105">
+        <v>227.44</v>
+      </c>
+      <c r="K105" t="s">
+        <v>176</v>
+      </c>
+      <c r="L105" t="s">
+        <v>196</v>
+      </c>
+      <c r="M105" t="s">
+        <v>213</v>
+      </c>
+      <c r="N105" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106">
+        <v>7201</v>
+      </c>
+      <c r="D106">
+        <v>8518</v>
+      </c>
+      <c r="E106">
+        <v>1000</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>167</v>
+      </c>
+      <c r="H106" t="s">
+        <v>167</v>
+      </c>
+      <c r="I106" t="s">
+        <v>172</v>
+      </c>
+      <c r="J106">
+        <v>230.17</v>
+      </c>
+      <c r="K106" t="s">
+        <v>177</v>
+      </c>
+      <c r="L106" t="s">
+        <v>197</v>
+      </c>
+      <c r="M106" t="s">
+        <v>215</v>
+      </c>
+      <c r="N106" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>163</v>
+      </c>
+      <c r="C107">
+        <v>29483</v>
+      </c>
+      <c r="D107">
+        <v>28303</v>
+      </c>
+      <c r="E107">
+        <v>372</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>167</v>
+      </c>
+      <c r="H107" t="s">
+        <v>167</v>
+      </c>
+      <c r="I107" t="s">
+        <v>173</v>
+      </c>
+      <c r="J107">
+        <v>274.96</v>
+      </c>
+      <c r="K107" t="s">
+        <v>176</v>
+      </c>
+      <c r="L107" t="s">
+        <v>198</v>
+      </c>
+      <c r="M107" t="s">
+        <v>214</v>
+      </c>
+      <c r="N107" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" t="s">
+        <v>164</v>
+      </c>
+      <c r="C108" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" t="s">
+        <v>166</v>
+      </c>
+      <c r="E108">
+        <v>900</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="s">
+        <v>167</v>
+      </c>
+      <c r="H108" t="s">
+        <v>167</v>
+      </c>
+      <c r="I108" t="s">
+        <v>173</v>
+      </c>
+      <c r="J108">
+        <v>796.88</v>
+      </c>
+      <c r="K108" t="s">
+        <v>177</v>
+      </c>
+      <c r="L108" t="s">
+        <v>199</v>
+      </c>
+      <c r="M108" t="s">
+        <v>203</v>
+      </c>
+      <c r="N108" s="2">
+        <v>45897</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="243">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -190,6 +190,12 @@
     <t>CMM0868LCL0007</t>
   </si>
   <si>
+    <t>CMM0637LCL0016</t>
+  </si>
+  <si>
+    <t>CMM0937LCL0001</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -511,10 +517,31 @@
     <t>2025-09-18 02:53:08</t>
   </si>
   <si>
-    <t>07201</t>
-  </si>
-  <si>
-    <t>15672</t>
+    <t>2025-09-18 11:10:39</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:28:17</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:30:18</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:00:05</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:00:32</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:03:24</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:03:41</t>
+  </si>
+  <si>
+    <t>90220</t>
+  </si>
+  <si>
+    <t>80018</t>
   </si>
   <si>
     <t>Success</t>
@@ -640,6 +667,21 @@
     <t>CMM0868LCL0007_20250918025308</t>
   </si>
   <si>
+    <t>CMM0637LCL0016_20250918111028</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007_20250918112817</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128_20250918113005</t>
+  </si>
+  <si>
+    <t>CMM0937LCL0001_20250918195948</t>
+  </si>
+  <si>
+    <t>CMM0937LCL0001_20250918200259</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -688,6 +730,12 @@
     <t>ABE8</t>
   </si>
   <si>
+    <t>BFI3</t>
+  </si>
+  <si>
+    <t>DEN8</t>
+  </si>
+  <si>
     <t>28-08-2025</t>
   </si>
   <si>
@@ -716,6 +764,9 @@
   </si>
   <si>
     <t>12-09-2025</t>
+  </si>
+  <si>
+    <t>18-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -1147,19 +1198,19 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J2">
         <v>546.16</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1167,7 +1218,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>7201</v>
@@ -1182,19 +1233,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J3">
         <v>2033.46</v>
       </c>
       <c r="K3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1202,7 +1253,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>90220</v>
@@ -1217,19 +1268,19 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J4">
         <v>1314.23</v>
       </c>
       <c r="K4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1237,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>90220</v>
@@ -1252,19 +1303,19 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J5">
         <v>638.28</v>
       </c>
       <c r="K5" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1272,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -1287,19 +1338,19 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J6">
         <v>1391.13</v>
       </c>
       <c r="K6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1307,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>29483</v>
@@ -1322,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1333,7 +1384,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>7201</v>
@@ -1348,19 +1399,19 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J8">
         <v>228.43</v>
       </c>
       <c r="K8" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1368,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>77020</v>
@@ -1383,10 +1434,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1394,7 +1445,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>7201</v>
@@ -1409,10 +1460,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H10" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1420,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>7201</v>
@@ -1435,10 +1486,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1446,7 +1497,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>7201</v>
@@ -1461,19 +1512,19 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H12" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J12">
         <v>331.73</v>
       </c>
       <c r="K12" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1481,7 +1532,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>77020</v>
@@ -1496,10 +1547,10 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H13" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1507,7 +1558,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1522,10 +1573,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H14" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1533,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1548,10 +1599,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1559,7 +1610,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>29483</v>
@@ -1574,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H16" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1585,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <v>29483</v>
@@ -1600,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H17" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1611,7 +1662,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <v>29483</v>
@@ -1626,19 +1677,19 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J18">
         <v>1148.94</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1646,7 +1697,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C19">
         <v>7201</v>
@@ -1661,19 +1712,19 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H19" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J19">
         <v>2094.3</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1681,7 +1732,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20">
         <v>29483</v>
@@ -1696,19 +1747,19 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H20" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J20">
         <v>1220.31</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1716,7 +1767,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C21">
         <v>7201</v>
@@ -1731,19 +1782,19 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H21" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J21">
         <v>2285.01</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1751,7 +1802,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22">
         <v>7201</v>
@@ -1766,19 +1817,19 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J22">
         <v>2285.01</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1786,7 +1837,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>7201</v>
@@ -1801,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H23" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1812,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1827,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H24" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1838,7 +1889,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1853,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H25" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1864,7 +1915,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26">
         <v>7201</v>
@@ -1879,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1890,7 +1941,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1905,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1916,7 +1967,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1931,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1942,7 +1993,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1957,10 +2008,10 @@
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1968,7 +2019,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -1983,19 +2034,19 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H30" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I30" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J30">
         <v>827.1900000000001</v>
       </c>
       <c r="K30" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2003,7 +2054,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2018,10 +2069,10 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H31" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2029,7 +2080,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -2044,19 +2095,19 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H32" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J32">
         <v>1451.97</v>
       </c>
       <c r="K32" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2064,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -2079,19 +2130,19 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H33" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I33" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J33">
         <v>827.1900000000001</v>
       </c>
       <c r="K33" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2099,7 +2150,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2114,10 +2165,10 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H34" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2125,7 +2176,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C35">
         <v>7201</v>
@@ -2140,19 +2191,19 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H35" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I35" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J35">
         <v>1451.97</v>
       </c>
       <c r="K35" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2160,7 +2211,7 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2175,10 +2226,10 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H36" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2186,7 +2237,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C37">
         <v>90220</v>
@@ -2201,19 +2252,19 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H37" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I37" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J37">
         <v>1391.13</v>
       </c>
       <c r="K37" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2221,7 +2272,7 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C38">
         <v>90220</v>
@@ -2236,19 +2287,19 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H38" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I38" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J38">
         <v>905.52</v>
       </c>
       <c r="K38" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2256,7 +2307,7 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2271,10 +2322,10 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H39" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2282,7 +2333,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2297,10 +2348,10 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H40" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2308,7 +2359,7 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C41">
         <v>7201</v>
@@ -2323,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H41" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2334,7 +2385,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C42">
         <v>7201</v>
@@ -2349,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H42" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2360,7 +2411,7 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C43">
         <v>7201</v>
@@ -2375,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H43" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2386,7 +2437,7 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44">
         <v>7201</v>
@@ -2401,19 +2452,19 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H44" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J44">
         <v>478.71</v>
       </c>
       <c r="K44" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2421,7 +2472,7 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C45">
         <v>7201</v>
@@ -2436,19 +2487,19 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H45" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I45" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J45">
         <v>478.71</v>
       </c>
       <c r="K45" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2456,7 +2507,7 @@
         <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C46">
         <v>29483</v>
@@ -2471,19 +2522,19 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H46" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J46">
         <v>594.48</v>
       </c>
       <c r="K46" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2491,7 +2542,7 @@
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47">
         <v>29483</v>
@@ -2506,19 +2557,19 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H47" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I47" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J47">
         <v>299.88</v>
       </c>
       <c r="K47" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2526,7 +2577,7 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -2541,19 +2592,19 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H48" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I48" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J48">
         <v>401.77</v>
       </c>
       <c r="K48" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2561,7 +2612,7 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -2576,19 +2627,19 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H49" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I49" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J49">
         <v>299.88</v>
       </c>
       <c r="K49" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2596,7 +2647,7 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C50">
         <v>29483</v>
@@ -2611,19 +2662,19 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H50" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I50" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J50">
         <v>299.88</v>
       </c>
       <c r="K50" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2631,7 +2682,7 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -2646,19 +2697,19 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H51" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I51" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J51">
         <v>478.71</v>
       </c>
       <c r="K51" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2666,7 +2717,7 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C52">
         <v>29483</v>
@@ -2681,19 +2732,19 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H52" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I52" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J52">
         <v>299.01</v>
       </c>
       <c r="K52" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2701,7 +2752,7 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C53">
         <v>29483</v>
@@ -2716,19 +2767,19 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H53" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I53" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J53">
         <v>643.77</v>
       </c>
       <c r="K53" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2736,7 +2787,7 @@
         <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -2751,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H54" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2762,7 +2813,7 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -2777,19 +2828,19 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H55" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I55" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J55">
         <v>331.73</v>
       </c>
       <c r="K55" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2797,7 +2848,7 @@
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -2812,19 +2863,19 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H56" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I56" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J56">
         <v>537.5599999999999</v>
       </c>
       <c r="K56" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2832,7 +2883,7 @@
         <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C57">
         <v>90220</v>
@@ -2847,19 +2898,19 @@
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H57" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I57" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J57">
         <v>568.7</v>
       </c>
       <c r="K57" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2867,7 +2918,7 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C58">
         <v>90220</v>
@@ -2882,19 +2933,19 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H58" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I58" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J58">
         <v>578.4400000000001</v>
       </c>
       <c r="K58" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2902,7 +2953,7 @@
         <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -2917,19 +2968,19 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H59" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I59" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J59">
         <v>331.73</v>
       </c>
       <c r="K59" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2937,7 +2988,7 @@
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -2952,19 +3003,19 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H60" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I60" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J60">
         <v>1080.48</v>
       </c>
       <c r="K60" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2972,7 +3023,7 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C61">
         <v>7201</v>
@@ -2987,19 +3038,19 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H61" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I61" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J61">
         <v>331.73</v>
       </c>
       <c r="K61" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3007,7 +3058,7 @@
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C62">
         <v>7201</v>
@@ -3022,19 +3073,19 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H62" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I62" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J62">
         <v>1080.48</v>
       </c>
       <c r="K62" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3042,7 +3093,7 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C63">
         <v>90220</v>
@@ -3057,19 +3108,19 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H63" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I63" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="J63">
         <v>824.79</v>
       </c>
       <c r="K63" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3077,7 +3128,7 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C64">
         <v>90220</v>
@@ -3092,19 +3143,19 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H64" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I64" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J64">
         <v>568.7</v>
       </c>
       <c r="K64" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3112,7 +3163,7 @@
         <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C65">
         <v>90220</v>
@@ -3127,19 +3178,19 @@
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H65" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I65" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J65">
         <v>578.4400000000001</v>
       </c>
       <c r="K65" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3147,7 +3198,7 @@
         <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C66">
         <v>90220</v>
@@ -3162,19 +3213,19 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H66" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I66" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="J66">
         <v>824.79</v>
       </c>
       <c r="K66" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3182,7 +3233,7 @@
         <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C67">
         <v>7201</v>
@@ -3197,19 +3248,19 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H67" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I67" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J67">
         <v>331.73</v>
       </c>
       <c r="K67" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3217,7 +3268,7 @@
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C68">
         <v>7201</v>
@@ -3232,19 +3283,19 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H68" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I68" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J68">
         <v>537.5599999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3252,7 +3303,7 @@
         <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C69">
         <v>29483</v>
@@ -3267,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H69" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3278,7 +3329,7 @@
         <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C70">
         <v>29483</v>
@@ -3293,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H70" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3304,7 +3355,7 @@
         <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C71">
         <v>90220</v>
@@ -3319,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H71" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3330,7 +3381,7 @@
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C72">
         <v>7201</v>
@@ -3345,19 +3396,19 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H72" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I72" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J72">
         <v>663.39</v>
       </c>
       <c r="K72" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3365,7 +3416,7 @@
         <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C73">
         <v>29483</v>
@@ -3380,19 +3431,19 @@
         <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H73" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I73" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J73">
         <v>833.58</v>
       </c>
       <c r="K73" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3400,7 +3451,7 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C74">
         <v>7201</v>
@@ -3415,19 +3466,19 @@
         <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H74" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I74" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J74">
         <v>1009.71</v>
       </c>
       <c r="K74" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3435,7 +3486,7 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C75">
         <v>29483</v>
@@ -3450,19 +3501,19 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H75" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I75" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J75">
         <v>350.66</v>
       </c>
       <c r="K75" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3470,7 +3521,7 @@
         <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C76">
         <v>29483</v>
@@ -3485,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H76" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3496,7 +3547,7 @@
         <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C77">
         <v>29483</v>
@@ -3511,10 +3562,10 @@
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H77" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3522,7 +3573,7 @@
         <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C78">
         <v>7201</v>
@@ -3537,19 +3588,19 @@
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H78" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I78" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J78">
         <v>532.35</v>
       </c>
       <c r="K78" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3557,7 +3608,7 @@
         <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C79">
         <v>7201</v>
@@ -3572,19 +3623,19 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H79" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I79" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J79">
         <v>478.71</v>
       </c>
       <c r="K79" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3592,7 +3643,7 @@
         <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C80">
         <v>29483</v>
@@ -3607,28 +3658,28 @@
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H80" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I80" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J80">
         <v>1047.15</v>
       </c>
       <c r="K80" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L80" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="M80" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="N80" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3636,7 +3687,7 @@
         <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C81">
         <v>7201</v>
@@ -3651,28 +3702,28 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H81" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I81" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J81">
         <v>275.96</v>
       </c>
       <c r="K81" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L81" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M81" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="N81" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3680,7 +3731,7 @@
         <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C82">
         <v>29483</v>
@@ -3695,28 +3746,28 @@
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H82" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I82" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J82">
         <v>317.68</v>
       </c>
       <c r="K82" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L82" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="M82" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="N82" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3724,7 +3775,7 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C83">
         <v>7201</v>
@@ -3739,25 +3790,25 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H83" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I83" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J83">
         <v>1425.81</v>
       </c>
       <c r="K83" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L83" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="M83" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="N83" s="2">
         <v>45897</v>
@@ -3768,7 +3819,7 @@
         <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C84">
         <v>29483</v>
@@ -3783,28 +3834,28 @@
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H84" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I84" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J84">
         <v>1502.37</v>
       </c>
       <c r="K84" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L84" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M84" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="N84" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -3812,7 +3863,7 @@
         <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C85">
         <v>7201</v>
@@ -3827,28 +3878,28 @@
         <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H85" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I85" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J85">
         <v>1009.71</v>
       </c>
       <c r="K85" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L85" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M85" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="N85" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -3856,7 +3907,7 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C86">
         <v>29483</v>
@@ -3871,19 +3922,19 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H86" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L86" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="M86" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="N86" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -3891,7 +3942,7 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C87">
         <v>7201</v>
@@ -3906,25 +3957,25 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H87" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I87" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J87">
         <v>226.77</v>
       </c>
       <c r="K87" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L87" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="M87" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="N87" s="2">
         <v>45897</v>
@@ -3935,7 +3986,7 @@
         <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C88">
         <v>90220</v>
@@ -3950,28 +4001,28 @@
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H88" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I88" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="J88">
         <v>720.76</v>
       </c>
       <c r="K88" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L88" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M88" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="N88" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -3979,7 +4030,7 @@
         <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C89">
         <v>90220</v>
@@ -3994,28 +4045,28 @@
         <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H89" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I89" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J89">
         <v>925.47</v>
       </c>
       <c r="K89" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L89" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M89" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="N89" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4023,7 +4074,7 @@
         <v>46</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C90">
         <v>29483</v>
@@ -4038,28 +4089,28 @@
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H90" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I90" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J90">
         <v>496.08</v>
       </c>
       <c r="K90" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L90" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M90" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="N90" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4067,7 +4118,7 @@
         <v>46</v>
       </c>
       <c r="B91" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C91">
         <v>7201</v>
@@ -4082,25 +4133,25 @@
         <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H91" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I91" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J91">
         <v>1704.49</v>
       </c>
       <c r="K91" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L91" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M91" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="N91" s="2">
         <v>45897</v>
@@ -4111,7 +4162,7 @@
         <v>46</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C92">
         <v>7201</v>
@@ -4126,25 +4177,25 @@
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H92" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I92" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J92">
         <v>772.2</v>
       </c>
       <c r="K92" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L92" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M92" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="N92" s="2">
         <v>45897</v>
@@ -4155,7 +4206,7 @@
         <v>46</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C93">
         <v>29483</v>
@@ -4170,28 +4221,28 @@
         <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H93" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J93">
         <v>496.08</v>
       </c>
       <c r="K93" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L93" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M93" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="N93" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4199,7 +4250,7 @@
         <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C94">
         <v>7201</v>
@@ -4214,25 +4265,25 @@
         <v>5</v>
       </c>
       <c r="G94" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H94" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I94" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J94">
         <v>1704.49</v>
       </c>
       <c r="K94" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L94" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M94" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="N94" s="2">
         <v>45897</v>
@@ -4243,7 +4294,7 @@
         <v>46</v>
       </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C95">
         <v>7201</v>
@@ -4258,25 +4309,25 @@
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H95" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I95" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J95">
         <v>772.2</v>
       </c>
       <c r="K95" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L95" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M95" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="N95" s="2">
         <v>45897</v>
@@ -4287,7 +4338,7 @@
         <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C96">
         <v>7201</v>
@@ -4302,25 +4353,25 @@
         <v>5</v>
       </c>
       <c r="G96" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H96" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I96" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J96">
         <v>1704.49</v>
       </c>
       <c r="K96" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L96" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M96" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="N96" s="2">
         <v>45897</v>
@@ -4331,7 +4382,7 @@
         <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C97">
         <v>7201</v>
@@ -4346,25 +4397,25 @@
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H97" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I97" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J97">
         <v>772.2</v>
       </c>
       <c r="K97" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L97" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M97" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="N97" s="2">
         <v>45897</v>
@@ -4375,7 +4426,7 @@
         <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C98">
         <v>29483</v>
@@ -4390,28 +4441,28 @@
         <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H98" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I98" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J98">
         <v>496.08</v>
       </c>
       <c r="K98" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L98" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M98" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="N98" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4419,7 +4470,7 @@
         <v>48</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C99">
         <v>7201</v>
@@ -4434,28 +4485,28 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H99" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I99" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J99">
         <v>227.44</v>
       </c>
       <c r="K99" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L99" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M99" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="N99" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4463,7 +4514,7 @@
         <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C100">
         <v>7201</v>
@@ -4478,28 +4529,28 @@
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H100" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I100" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J100">
         <v>327.35</v>
       </c>
       <c r="K100" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L100" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M100" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="N100" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4507,7 +4558,7 @@
         <v>50</v>
       </c>
       <c r="B101" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C101">
         <v>7201</v>
@@ -4522,25 +4573,25 @@
         <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H101" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I101" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J101">
         <v>532.35</v>
       </c>
       <c r="K101" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L101" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M101" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="N101" s="2">
         <v>45897</v>
@@ -4551,7 +4602,7 @@
         <v>51</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C102">
         <v>7201</v>
@@ -4566,28 +4617,28 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H102" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I102" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J102">
         <v>227.44</v>
       </c>
       <c r="K102" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L102" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M102" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="N102" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4595,7 +4646,7 @@
         <v>52</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C103">
         <v>7201</v>
@@ -4610,28 +4661,28 @@
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H103" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I103" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>227.44</v>
       </c>
       <c r="K103" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L103" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M103" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="N103" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4639,7 +4690,7 @@
         <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C104">
         <v>29483</v>
@@ -4654,28 +4705,28 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H104" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I104" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J104">
         <v>279.08</v>
       </c>
       <c r="K104" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L104" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M104" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="N104" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -4683,7 +4734,7 @@
         <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C105">
         <v>7201</v>
@@ -4698,28 +4749,28 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H105" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I105" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J105">
         <v>227.44</v>
       </c>
       <c r="K105" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L105" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="M105" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="N105" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -4727,7 +4778,7 @@
         <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C106">
         <v>7201</v>
@@ -4742,25 +4793,25 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H106" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I106" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J106">
         <v>230.17</v>
       </c>
       <c r="K106" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L106" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M106" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="N106" s="2">
         <v>45897</v>
@@ -4771,7 +4822,7 @@
         <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C107">
         <v>29483</v>
@@ -4786,28 +4837,28 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H107" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I107" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J107">
         <v>274.96</v>
       </c>
       <c r="K107" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L107" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M107" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="N107" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -4815,13 +4866,13 @@
         <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>164</v>
-      </c>
-      <c r="C108" t="s">
-        <v>165</v>
-      </c>
-      <c r="D108" t="s">
         <v>166</v>
+      </c>
+      <c r="C108">
+        <v>7201</v>
+      </c>
+      <c r="D108">
+        <v>15672</v>
       </c>
       <c r="E108">
         <v>900</v>
@@ -4830,27 +4881,335 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H108" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I108" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J108">
         <v>796.88</v>
       </c>
       <c r="K108" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L108" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M108" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="N108" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109">
+        <v>7201</v>
+      </c>
+      <c r="D109">
+        <v>18031</v>
+      </c>
+      <c r="E109">
+        <v>198</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>176</v>
+      </c>
+      <c r="H109" t="s">
+        <v>176</v>
+      </c>
+      <c r="I109" t="s">
+        <v>184</v>
+      </c>
+      <c r="J109">
+        <v>227.44</v>
+      </c>
+      <c r="K109" t="s">
+        <v>185</v>
+      </c>
+      <c r="L109" t="s">
+        <v>209</v>
+      </c>
+      <c r="M109" t="s">
+        <v>227</v>
+      </c>
+      <c r="N109" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" t="s">
+        <v>57</v>
+      </c>
+      <c r="B110" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110">
+        <v>7201</v>
+      </c>
+      <c r="D110">
+        <v>15672</v>
+      </c>
+      <c r="E110">
+        <v>900</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110" t="s">
+        <v>176</v>
+      </c>
+      <c r="H110" t="s">
+        <v>176</v>
+      </c>
+      <c r="I110" t="s">
+        <v>182</v>
+      </c>
+      <c r="J110">
+        <v>796.88</v>
+      </c>
+      <c r="K110" t="s">
+        <v>186</v>
+      </c>
+      <c r="L110" t="s">
+        <v>210</v>
+      </c>
+      <c r="M110" t="s">
+        <v>217</v>
+      </c>
+      <c r="N110" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" t="s">
+        <v>169</v>
+      </c>
+      <c r="C111">
+        <v>7201</v>
+      </c>
+      <c r="D111">
+        <v>18031</v>
+      </c>
+      <c r="E111">
+        <v>227</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>176</v>
+      </c>
+      <c r="H111" t="s">
+        <v>176</v>
+      </c>
+      <c r="I111" t="s">
+        <v>184</v>
+      </c>
+      <c r="J111">
+        <v>227.44</v>
+      </c>
+      <c r="K111" t="s">
+        <v>185</v>
+      </c>
+      <c r="L111" t="s">
+        <v>211</v>
+      </c>
+      <c r="M111" t="s">
+        <v>227</v>
+      </c>
+      <c r="N111" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112">
+        <v>90220</v>
+      </c>
+      <c r="D112">
+        <v>98327</v>
+      </c>
+      <c r="E112">
+        <v>432</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>176</v>
+      </c>
+      <c r="H112" t="s">
+        <v>176</v>
+      </c>
+      <c r="I112" t="s">
+        <v>184</v>
+      </c>
+      <c r="J112">
+        <v>551.83</v>
+      </c>
+      <c r="K112" t="s">
+        <v>185</v>
+      </c>
+      <c r="L112" t="s">
+        <v>212</v>
+      </c>
+      <c r="M112" t="s">
+        <v>230</v>
+      </c>
+      <c r="N112" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" t="s">
+        <v>59</v>
+      </c>
+      <c r="B113" t="s">
+        <v>171</v>
+      </c>
+      <c r="C113">
+        <v>90220</v>
+      </c>
+      <c r="D113">
+        <v>80018</v>
+      </c>
+      <c r="E113">
+        <v>147</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>176</v>
+      </c>
+      <c r="H113" t="s">
+        <v>176</v>
+      </c>
+      <c r="I113" t="s">
+        <v>181</v>
+      </c>
+      <c r="J113">
+        <v>761.3</v>
+      </c>
+      <c r="K113" t="s">
+        <v>186</v>
+      </c>
+      <c r="L113" t="s">
+        <v>212</v>
+      </c>
+      <c r="M113" t="s">
+        <v>231</v>
+      </c>
+      <c r="N113" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" t="s">
+        <v>59</v>
+      </c>
+      <c r="B114" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114">
+        <v>90220</v>
+      </c>
+      <c r="D114">
+        <v>98327</v>
+      </c>
+      <c r="E114">
+        <v>432</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>176</v>
+      </c>
+      <c r="H114" t="s">
+        <v>176</v>
+      </c>
+      <c r="I114" t="s">
+        <v>184</v>
+      </c>
+      <c r="J114">
+        <v>551.83</v>
+      </c>
+      <c r="K114" t="s">
+        <v>185</v>
+      </c>
+      <c r="L114" t="s">
+        <v>213</v>
+      </c>
+      <c r="M114" t="s">
+        <v>230</v>
+      </c>
+      <c r="N114" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" t="s">
+        <v>174</v>
+      </c>
+      <c r="D115" t="s">
+        <v>175</v>
+      </c>
+      <c r="E115">
+        <v>147</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>176</v>
+      </c>
+      <c r="H115" t="s">
+        <v>176</v>
+      </c>
+      <c r="I115" t="s">
+        <v>181</v>
+      </c>
+      <c r="J115">
+        <v>761.3</v>
+      </c>
+      <c r="K115" t="s">
+        <v>186</v>
+      </c>
+      <c r="L115" t="s">
+        <v>213</v>
+      </c>
+      <c r="M115" t="s">
+        <v>231</v>
+      </c>
+      <c r="N115" s="2">
         <v>45897</v>
       </c>
     </row>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="252">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -196,6 +196,9 @@
     <t>CMM0937LCL0001</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -538,10 +541,19 @@
     <t>2025-09-18 20:03:41</t>
   </si>
   <si>
-    <t>90220</t>
-  </si>
-  <si>
-    <t>80018</t>
+    <t>2025-09-19 08:12:18</t>
+  </si>
+  <si>
+    <t>2025-09-19 08:19:51</t>
+  </si>
+  <si>
+    <t>2025-09-19 11:30:34</t>
+  </si>
+  <si>
+    <t>07201</t>
+  </si>
+  <si>
+    <t>33032</t>
   </si>
   <si>
     <t>Success</t>
@@ -583,6 +595,21 @@
 }</t>
   </si>
   <si>
+    <t>422 - {
+    "error": {
+        "code": "validation_error",
+        "message": "Some Fields are invalid. See validation_errors for details"
+    },
+    "validation_errors": {
+        "pickup": {
+            "postal": [
+                "Error in $: Error validating Data.Shipping.PostalCode.PostalCode: postal_must_have_format_99999"
+            ]
+        }
+    }
+}</t>
+  </si>
+  <si>
     <t>Estes Express Lines</t>
   </si>
   <si>
@@ -682,6 +709,15 @@
     <t>CMM0937LCL0001_20250918200259</t>
   </si>
   <si>
+    <t>TRANSPORT_RATES_20250919081213</t>
+  </si>
+  <si>
+    <t>TRANSPORT_RATES_20250919081945</t>
+  </si>
+  <si>
+    <t>TRANSPORT_RATES_20250919113020</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -767,6 +803,9 @@
   </si>
   <si>
     <t>18-09-2025</t>
+  </si>
+  <si>
+    <t>19-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1183,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -1198,19 +1237,19 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J2">
         <v>546.16</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1218,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>7201</v>
@@ -1233,19 +1272,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J3">
         <v>2033.46</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1253,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>90220</v>
@@ -1268,19 +1307,19 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J4">
         <v>1314.23</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1288,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>90220</v>
@@ -1303,19 +1342,19 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J5">
         <v>638.28</v>
       </c>
       <c r="K5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1323,7 +1362,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -1338,19 +1377,19 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J6">
         <v>1391.13</v>
       </c>
       <c r="K6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1358,7 +1397,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>29483</v>
@@ -1373,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1384,7 +1423,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>7201</v>
@@ -1399,19 +1438,19 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J8">
         <v>228.43</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1419,7 +1458,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>77020</v>
@@ -1434,10 +1473,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1445,7 +1484,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>7201</v>
@@ -1460,10 +1499,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1471,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>7201</v>
@@ -1486,10 +1525,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1497,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>7201</v>
@@ -1512,19 +1551,19 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J12">
         <v>331.73</v>
       </c>
       <c r="K12" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1532,7 +1571,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>77020</v>
@@ -1547,10 +1586,10 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1558,7 +1597,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1573,10 +1612,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1584,7 +1623,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1599,10 +1638,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1610,7 +1649,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16">
         <v>29483</v>
@@ -1625,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H16" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1636,7 +1675,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <v>29483</v>
@@ -1651,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H17" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1662,7 +1701,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18">
         <v>29483</v>
@@ -1677,19 +1716,19 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J18">
         <v>1148.94</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1697,7 +1736,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19">
         <v>7201</v>
@@ -1712,19 +1751,19 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J19">
         <v>2094.3</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1732,7 +1771,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>29483</v>
@@ -1747,19 +1786,19 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H20" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J20">
         <v>1220.31</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1767,7 +1806,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>7201</v>
@@ -1782,19 +1821,19 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H21" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J21">
         <v>2285.01</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1802,7 +1841,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>7201</v>
@@ -1817,19 +1856,19 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H22" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J22">
         <v>2285.01</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1837,7 +1876,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23">
         <v>7201</v>
@@ -1852,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H23" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1863,7 +1902,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1878,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H24" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1889,7 +1928,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1904,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H25" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1915,7 +1954,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26">
         <v>7201</v>
@@ -1930,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H26" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1941,7 +1980,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1956,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H27" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1967,7 +2006,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1982,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H28" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1993,7 +2032,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2008,10 +2047,10 @@
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2019,7 +2058,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -2034,19 +2073,19 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I30" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J30">
         <v>827.1900000000001</v>
       </c>
       <c r="K30" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2054,7 +2093,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2069,10 +2108,10 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2080,7 +2119,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -2095,19 +2134,19 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I32" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J32">
         <v>1451.97</v>
       </c>
       <c r="K32" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2115,7 +2154,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -2130,19 +2169,19 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I33" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J33">
         <v>827.1900000000001</v>
       </c>
       <c r="K33" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2150,7 +2189,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2165,10 +2204,10 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H34" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2176,7 +2215,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C35">
         <v>7201</v>
@@ -2191,19 +2230,19 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H35" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I35" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J35">
         <v>1451.97</v>
       </c>
       <c r="K35" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2211,7 +2250,7 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2226,10 +2265,10 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H36" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2237,7 +2276,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37">
         <v>90220</v>
@@ -2252,19 +2291,19 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H37" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I37" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J37">
         <v>1391.13</v>
       </c>
       <c r="K37" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2272,7 +2311,7 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38">
         <v>90220</v>
@@ -2287,19 +2326,19 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H38" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I38" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J38">
         <v>905.52</v>
       </c>
       <c r="K38" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2307,7 +2346,7 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2322,10 +2361,10 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H39" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2333,7 +2372,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2348,10 +2387,10 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2359,7 +2398,7 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41">
         <v>7201</v>
@@ -2374,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H41" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2385,7 +2424,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42">
         <v>7201</v>
@@ -2400,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H42" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2411,7 +2450,7 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43">
         <v>7201</v>
@@ -2426,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H43" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2437,7 +2476,7 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44">
         <v>7201</v>
@@ -2452,19 +2491,19 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H44" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I44" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J44">
         <v>478.71</v>
       </c>
       <c r="K44" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2472,7 +2511,7 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45">
         <v>7201</v>
@@ -2487,19 +2526,19 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H45" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I45" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J45">
         <v>478.71</v>
       </c>
       <c r="K45" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2507,7 +2546,7 @@
         <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46">
         <v>29483</v>
@@ -2522,19 +2561,19 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H46" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I46" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J46">
         <v>594.48</v>
       </c>
       <c r="K46" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2542,7 +2581,7 @@
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47">
         <v>29483</v>
@@ -2557,19 +2596,19 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H47" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I47" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J47">
         <v>299.88</v>
       </c>
       <c r="K47" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2577,7 +2616,7 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -2592,19 +2631,19 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H48" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I48" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J48">
         <v>401.77</v>
       </c>
       <c r="K48" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2612,7 +2651,7 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -2627,19 +2666,19 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H49" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I49" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J49">
         <v>299.88</v>
       </c>
       <c r="K49" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2647,7 +2686,7 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50">
         <v>29483</v>
@@ -2662,19 +2701,19 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H50" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I50" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J50">
         <v>299.88</v>
       </c>
       <c r="K50" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2682,7 +2721,7 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -2697,19 +2736,19 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H51" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I51" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J51">
         <v>478.71</v>
       </c>
       <c r="K51" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2717,7 +2756,7 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52">
         <v>29483</v>
@@ -2732,19 +2771,19 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J52">
         <v>299.01</v>
       </c>
       <c r="K52" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2752,7 +2791,7 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53">
         <v>29483</v>
@@ -2767,19 +2806,19 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H53" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I53" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J53">
         <v>643.77</v>
       </c>
       <c r="K53" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2787,7 +2826,7 @@
         <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -2802,10 +2841,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H54" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2813,7 +2852,7 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -2828,19 +2867,19 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H55" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I55" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J55">
         <v>331.73</v>
       </c>
       <c r="K55" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2848,7 +2887,7 @@
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -2863,19 +2902,19 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H56" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I56" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J56">
         <v>537.5599999999999</v>
       </c>
       <c r="K56" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2883,7 +2922,7 @@
         <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57">
         <v>90220</v>
@@ -2898,19 +2937,19 @@
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H57" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I57" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J57">
         <v>568.7</v>
       </c>
       <c r="K57" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2918,7 +2957,7 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58">
         <v>90220</v>
@@ -2933,19 +2972,19 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H58" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I58" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J58">
         <v>578.4400000000001</v>
       </c>
       <c r="K58" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2953,7 +2992,7 @@
         <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -2968,19 +3007,19 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H59" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I59" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J59">
         <v>331.73</v>
       </c>
       <c r="K59" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2988,7 +3027,7 @@
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -3003,19 +3042,19 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H60" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I60" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J60">
         <v>1080.48</v>
       </c>
       <c r="K60" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3023,7 +3062,7 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61">
         <v>7201</v>
@@ -3038,19 +3077,19 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H61" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I61" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J61">
         <v>331.73</v>
       </c>
       <c r="K61" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3058,7 +3097,7 @@
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C62">
         <v>7201</v>
@@ -3073,19 +3112,19 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H62" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I62" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J62">
         <v>1080.48</v>
       </c>
       <c r="K62" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3093,7 +3132,7 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C63">
         <v>90220</v>
@@ -3108,19 +3147,19 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H63" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I63" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J63">
         <v>824.79</v>
       </c>
       <c r="K63" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3128,7 +3167,7 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64">
         <v>90220</v>
@@ -3143,19 +3182,19 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H64" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I64" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J64">
         <v>568.7</v>
       </c>
       <c r="K64" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3163,7 +3202,7 @@
         <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C65">
         <v>90220</v>
@@ -3178,19 +3217,19 @@
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H65" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I65" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J65">
         <v>578.4400000000001</v>
       </c>
       <c r="K65" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3198,7 +3237,7 @@
         <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C66">
         <v>90220</v>
@@ -3213,19 +3252,19 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H66" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I66" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J66">
         <v>824.79</v>
       </c>
       <c r="K66" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3233,7 +3272,7 @@
         <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67">
         <v>7201</v>
@@ -3248,19 +3287,19 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H67" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I67" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J67">
         <v>331.73</v>
       </c>
       <c r="K67" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3268,7 +3307,7 @@
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C68">
         <v>7201</v>
@@ -3283,19 +3322,19 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H68" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I68" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J68">
         <v>537.5599999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3303,7 +3342,7 @@
         <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C69">
         <v>29483</v>
@@ -3318,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H69" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3329,7 +3368,7 @@
         <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C70">
         <v>29483</v>
@@ -3344,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H70" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3355,7 +3394,7 @@
         <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C71">
         <v>90220</v>
@@ -3370,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H71" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3381,7 +3420,7 @@
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C72">
         <v>7201</v>
@@ -3396,19 +3435,19 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H72" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I72" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J72">
         <v>663.39</v>
       </c>
       <c r="K72" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3416,7 +3455,7 @@
         <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C73">
         <v>29483</v>
@@ -3431,19 +3470,19 @@
         <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H73" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I73" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J73">
         <v>833.58</v>
       </c>
       <c r="K73" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3451,7 +3490,7 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C74">
         <v>7201</v>
@@ -3466,19 +3505,19 @@
         <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H74" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I74" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J74">
         <v>1009.71</v>
       </c>
       <c r="K74" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3486,7 +3525,7 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C75">
         <v>29483</v>
@@ -3501,19 +3540,19 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H75" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I75" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J75">
         <v>350.66</v>
       </c>
       <c r="K75" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3521,7 +3560,7 @@
         <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C76">
         <v>29483</v>
@@ -3536,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H76" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3547,7 +3586,7 @@
         <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C77">
         <v>29483</v>
@@ -3562,10 +3601,10 @@
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H77" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3573,7 +3612,7 @@
         <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C78">
         <v>7201</v>
@@ -3588,19 +3627,19 @@
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H78" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I78" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J78">
         <v>532.35</v>
       </c>
       <c r="K78" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3608,7 +3647,7 @@
         <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C79">
         <v>7201</v>
@@ -3623,19 +3662,19 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H79" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I79" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J79">
         <v>478.71</v>
       </c>
       <c r="K79" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3643,7 +3682,7 @@
         <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C80">
         <v>29483</v>
@@ -3658,28 +3697,28 @@
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H80" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I80" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J80">
         <v>1047.15</v>
       </c>
       <c r="K80" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L80" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M80" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="N80" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3687,7 +3726,7 @@
         <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C81">
         <v>7201</v>
@@ -3702,28 +3741,28 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H81" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I81" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J81">
         <v>275.96</v>
       </c>
       <c r="K81" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L81" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M81" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="N81" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3731,7 +3770,7 @@
         <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C82">
         <v>29483</v>
@@ -3746,28 +3785,28 @@
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H82" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I82" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J82">
         <v>317.68</v>
       </c>
       <c r="K82" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L82" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M82" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N82" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3775,7 +3814,7 @@
         <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C83">
         <v>7201</v>
@@ -3790,25 +3829,25 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H83" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I83" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J83">
         <v>1425.81</v>
       </c>
       <c r="K83" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L83" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M83" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N83" s="2">
         <v>45897</v>
@@ -3819,7 +3858,7 @@
         <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C84">
         <v>29483</v>
@@ -3834,28 +3873,28 @@
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H84" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I84" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J84">
         <v>1502.37</v>
       </c>
       <c r="K84" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L84" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M84" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="N84" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -3863,7 +3902,7 @@
         <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C85">
         <v>7201</v>
@@ -3878,28 +3917,28 @@
         <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H85" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I85" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J85">
         <v>1009.71</v>
       </c>
       <c r="K85" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L85" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M85" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="N85" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -3907,7 +3946,7 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C86">
         <v>29483</v>
@@ -3922,19 +3961,19 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H86" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L86" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M86" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="N86" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -3942,7 +3981,7 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C87">
         <v>7201</v>
@@ -3957,25 +3996,25 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H87" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I87" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J87">
         <v>226.77</v>
       </c>
       <c r="K87" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L87" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M87" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N87" s="2">
         <v>45897</v>
@@ -3986,7 +4025,7 @@
         <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C88">
         <v>90220</v>
@@ -4001,28 +4040,28 @@
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H88" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I88" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J88">
         <v>720.76</v>
       </c>
       <c r="K88" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L88" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M88" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="N88" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4030,7 +4069,7 @@
         <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C89">
         <v>90220</v>
@@ -4045,28 +4084,28 @@
         <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H89" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I89" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J89">
         <v>925.47</v>
       </c>
       <c r="K89" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L89" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M89" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="N89" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4074,7 +4113,7 @@
         <v>46</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C90">
         <v>29483</v>
@@ -4089,28 +4128,28 @@
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H90" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I90" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J90">
         <v>496.08</v>
       </c>
       <c r="K90" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L90" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M90" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="N90" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4118,7 +4157,7 @@
         <v>46</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C91">
         <v>7201</v>
@@ -4133,25 +4172,25 @@
         <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H91" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I91" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J91">
         <v>1704.49</v>
       </c>
       <c r="K91" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L91" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M91" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N91" s="2">
         <v>45897</v>
@@ -4162,7 +4201,7 @@
         <v>46</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C92">
         <v>7201</v>
@@ -4177,25 +4216,25 @@
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H92" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I92" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J92">
         <v>772.2</v>
       </c>
       <c r="K92" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L92" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M92" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N92" s="2">
         <v>45897</v>
@@ -4206,7 +4245,7 @@
         <v>46</v>
       </c>
       <c r="B93" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C93">
         <v>29483</v>
@@ -4221,28 +4260,28 @@
         <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H93" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I93" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J93">
         <v>496.08</v>
       </c>
       <c r="K93" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L93" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M93" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="N93" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4250,7 +4289,7 @@
         <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C94">
         <v>7201</v>
@@ -4265,25 +4304,25 @@
         <v>5</v>
       </c>
       <c r="G94" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H94" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I94" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J94">
         <v>1704.49</v>
       </c>
       <c r="K94" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L94" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M94" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N94" s="2">
         <v>45897</v>
@@ -4294,7 +4333,7 @@
         <v>46</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C95">
         <v>7201</v>
@@ -4309,25 +4348,25 @@
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H95" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I95" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J95">
         <v>772.2</v>
       </c>
       <c r="K95" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L95" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M95" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N95" s="2">
         <v>45897</v>
@@ -4338,7 +4377,7 @@
         <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C96">
         <v>7201</v>
@@ -4353,25 +4392,25 @@
         <v>5</v>
       </c>
       <c r="G96" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H96" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I96" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J96">
         <v>1704.49</v>
       </c>
       <c r="K96" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L96" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M96" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N96" s="2">
         <v>45897</v>
@@ -4382,7 +4421,7 @@
         <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C97">
         <v>7201</v>
@@ -4397,25 +4436,25 @@
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H97" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I97" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J97">
         <v>772.2</v>
       </c>
       <c r="K97" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L97" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M97" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N97" s="2">
         <v>45897</v>
@@ -4426,7 +4465,7 @@
         <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C98">
         <v>29483</v>
@@ -4441,28 +4480,28 @@
         <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H98" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I98" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J98">
         <v>496.08</v>
       </c>
       <c r="K98" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L98" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M98" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="N98" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4470,7 +4509,7 @@
         <v>48</v>
       </c>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C99">
         <v>7201</v>
@@ -4485,28 +4524,28 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H99" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I99" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J99">
         <v>227.44</v>
       </c>
       <c r="K99" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L99" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M99" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="N99" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4514,7 +4553,7 @@
         <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C100">
         <v>7201</v>
@@ -4529,28 +4568,28 @@
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H100" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I100" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J100">
         <v>327.35</v>
       </c>
       <c r="K100" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L100" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M100" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="N100" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4558,7 +4597,7 @@
         <v>50</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C101">
         <v>7201</v>
@@ -4573,25 +4612,25 @@
         <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H101" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I101" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J101">
         <v>532.35</v>
       </c>
       <c r="K101" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L101" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M101" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N101" s="2">
         <v>45897</v>
@@ -4602,7 +4641,7 @@
         <v>51</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C102">
         <v>7201</v>
@@ -4617,28 +4656,28 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H102" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I102" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J102">
         <v>227.44</v>
       </c>
       <c r="K102" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L102" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M102" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="N102" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4646,7 +4685,7 @@
         <v>52</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C103">
         <v>7201</v>
@@ -4661,28 +4700,28 @@
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H103" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I103" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J103">
         <v>227.44</v>
       </c>
       <c r="K103" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L103" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M103" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="N103" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4690,7 +4729,7 @@
         <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C104">
         <v>29483</v>
@@ -4705,28 +4744,28 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H104" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I104" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J104">
         <v>279.08</v>
       </c>
       <c r="K104" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L104" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M104" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N104" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -4734,7 +4773,7 @@
         <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C105">
         <v>7201</v>
@@ -4749,28 +4788,28 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H105" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I105" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J105">
         <v>227.44</v>
       </c>
       <c r="K105" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L105" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M105" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="N105" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -4778,7 +4817,7 @@
         <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C106">
         <v>7201</v>
@@ -4793,25 +4832,25 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H106" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I106" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J106">
         <v>230.17</v>
       </c>
       <c r="K106" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L106" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M106" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="N106" s="2">
         <v>45897</v>
@@ -4822,7 +4861,7 @@
         <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C107">
         <v>29483</v>
@@ -4837,28 +4876,28 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H107" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I107" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J107">
         <v>274.96</v>
       </c>
       <c r="K107" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L107" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M107" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N107" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -4866,7 +4905,7 @@
         <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C108">
         <v>7201</v>
@@ -4881,25 +4920,25 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H108" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I108" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J108">
         <v>796.88</v>
       </c>
       <c r="K108" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L108" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M108" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N108" s="2">
         <v>45897</v>
@@ -4910,7 +4949,7 @@
         <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C109">
         <v>7201</v>
@@ -4925,28 +4964,28 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H109" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I109" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J109">
         <v>227.44</v>
       </c>
       <c r="K109" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L109" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M109" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="N109" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -4954,7 +4993,7 @@
         <v>57</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C110">
         <v>7201</v>
@@ -4969,25 +5008,25 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H110" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I110" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J110">
         <v>796.88</v>
       </c>
       <c r="K110" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L110" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M110" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N110" s="2">
         <v>45897</v>
@@ -4998,7 +5037,7 @@
         <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C111">
         <v>7201</v>
@@ -5013,28 +5052,28 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H111" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I111" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J111">
         <v>227.44</v>
       </c>
       <c r="K111" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L111" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M111" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="N111" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5042,7 +5081,7 @@
         <v>59</v>
       </c>
       <c r="B112" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C112">
         <v>90220</v>
@@ -5057,28 +5096,28 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H112" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I112" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J112">
         <v>551.83</v>
       </c>
       <c r="K112" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L112" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M112" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="N112" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5086,7 +5125,7 @@
         <v>59</v>
       </c>
       <c r="B113" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C113">
         <v>90220</v>
@@ -5101,25 +5140,25 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H113" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I113" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J113">
         <v>761.3</v>
       </c>
       <c r="K113" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L113" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M113" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="N113" s="2">
         <v>45897</v>
@@ -5130,7 +5169,7 @@
         <v>59</v>
       </c>
       <c r="B114" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C114">
         <v>90220</v>
@@ -5145,28 +5184,28 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H114" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I114" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J114">
         <v>551.83</v>
       </c>
       <c r="K114" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L114" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M114" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="N114" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5174,13 +5213,13 @@
         <v>59</v>
       </c>
       <c r="B115" t="s">
-        <v>173</v>
-      </c>
-      <c r="C115" t="s">
         <v>174</v>
       </c>
-      <c r="D115" t="s">
-        <v>175</v>
+      <c r="C115">
+        <v>90220</v>
+      </c>
+      <c r="D115">
+        <v>80018</v>
       </c>
       <c r="E115">
         <v>147</v>
@@ -5189,28 +5228,151 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H115" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I115" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J115">
         <v>761.3</v>
       </c>
       <c r="K115" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L115" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M115" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="N115" s="2">
         <v>45897</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116">
+        <v>7201</v>
+      </c>
+      <c r="D116">
+        <v>21901</v>
+      </c>
+      <c r="E116">
+        <v>4000</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>180</v>
+      </c>
+      <c r="H116" t="s">
+        <v>180</v>
+      </c>
+      <c r="I116" t="s">
+        <v>189</v>
+      </c>
+      <c r="J116">
+        <v>639.99</v>
+      </c>
+      <c r="K116" t="s">
+        <v>190</v>
+      </c>
+      <c r="L116" t="s">
+        <v>219</v>
+      </c>
+      <c r="M116" t="s">
+        <v>60</v>
+      </c>
+      <c r="N116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117">
+        <v>583229</v>
+      </c>
+      <c r="D117">
+        <v>21901</v>
+      </c>
+      <c r="E117">
+        <v>4000</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H117" t="s">
+        <v>185</v>
+      </c>
+      <c r="L117" t="s">
+        <v>220</v>
+      </c>
+      <c r="M117" t="s">
+        <v>60</v>
+      </c>
+      <c r="N117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" t="s">
+        <v>179</v>
+      </c>
+      <c r="E118">
+        <v>1800</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+      <c r="G118" t="s">
+        <v>180</v>
+      </c>
+      <c r="H118" t="s">
+        <v>180</v>
+      </c>
+      <c r="I118" t="s">
+        <v>188</v>
+      </c>
+      <c r="J118">
+        <v>1053.58</v>
+      </c>
+      <c r="K118" t="s">
+        <v>190</v>
+      </c>
+      <c r="L118" t="s">
+        <v>221</v>
+      </c>
+      <c r="M118" t="s">
+        <v>60</v>
+      </c>
+      <c r="N118" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="255">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -550,10 +550,13 @@
     <t>2025-09-19 11:30:34</t>
   </si>
   <si>
+    <t>2025-09-23 10:58:15</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>33032</t>
+    <t>18101</t>
   </si>
   <si>
     <t>Success</t>
@@ -718,6 +721,9 @@
     <t>TRANSPORT_RATES_20250919113020</t>
   </si>
   <si>
+    <t>TRANSPORT_RATES_20250923105802</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -806,6 +812,9 @@
   </si>
   <si>
     <t>19-09-2025</t>
+  </si>
+  <si>
+    <t>23-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,19 +1246,19 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J2">
         <v>546.16</v>
       </c>
       <c r="K2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1272,19 +1281,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J3">
         <v>2033.46</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1307,19 +1316,19 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J4">
         <v>1314.23</v>
       </c>
       <c r="K4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1342,19 +1351,19 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J5">
         <v>638.28</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1377,19 +1386,19 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J6">
         <v>1391.13</v>
       </c>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1412,10 +1421,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1438,19 +1447,19 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J8">
         <v>228.43</v>
       </c>
       <c r="K8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1473,10 +1482,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1499,10 +1508,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1525,10 +1534,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1551,19 +1560,19 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J12">
         <v>331.73</v>
       </c>
       <c r="K12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1586,10 +1595,10 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1612,10 +1621,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1638,10 +1647,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1664,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1690,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1716,19 +1725,19 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J18">
         <v>1148.94</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1751,19 +1760,19 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J19">
         <v>2094.3</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1786,19 +1795,19 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J20">
         <v>1220.31</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1821,19 +1830,19 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J21">
         <v>2285.01</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1856,19 +1865,19 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J22">
         <v>2285.01</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1891,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1917,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1943,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1969,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1995,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2021,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2047,10 +2056,10 @@
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2073,19 +2082,19 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J30">
         <v>827.1900000000001</v>
       </c>
       <c r="K30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2108,10 +2117,10 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2134,19 +2143,19 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J32">
         <v>1451.97</v>
       </c>
       <c r="K32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2169,19 +2178,19 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J33">
         <v>827.1900000000001</v>
       </c>
       <c r="K33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2204,10 +2213,10 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2230,19 +2239,19 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J35">
         <v>1451.97</v>
       </c>
       <c r="K35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2265,10 +2274,10 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2291,19 +2300,19 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J37">
         <v>1391.13</v>
       </c>
       <c r="K37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2326,19 +2335,19 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J38">
         <v>905.52</v>
       </c>
       <c r="K38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2361,10 +2370,10 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2387,10 +2396,10 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2413,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2439,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2465,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2491,19 +2500,19 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J44">
         <v>478.71</v>
       </c>
       <c r="K44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2526,19 +2535,19 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J45">
         <v>478.71</v>
       </c>
       <c r="K45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2561,19 +2570,19 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J46">
         <v>594.48</v>
       </c>
       <c r="K46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2596,19 +2605,19 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J47">
         <v>299.88</v>
       </c>
       <c r="K47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2631,19 +2640,19 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J48">
         <v>401.77</v>
       </c>
       <c r="K48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2666,19 +2675,19 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J49">
         <v>299.88</v>
       </c>
       <c r="K49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2701,19 +2710,19 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J50">
         <v>299.88</v>
       </c>
       <c r="K50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2736,19 +2745,19 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J51">
         <v>478.71</v>
       </c>
       <c r="K51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2771,19 +2780,19 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J52">
         <v>299.01</v>
       </c>
       <c r="K52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2806,19 +2815,19 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J53">
         <v>643.77</v>
       </c>
       <c r="K53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2841,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2867,19 +2876,19 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J55">
         <v>331.73</v>
       </c>
       <c r="K55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2902,19 +2911,19 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J56">
         <v>537.5599999999999</v>
       </c>
       <c r="K56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2937,19 +2946,19 @@
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J57">
         <v>568.7</v>
       </c>
       <c r="K57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2972,19 +2981,19 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J58">
         <v>578.4400000000001</v>
       </c>
       <c r="K58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3007,19 +3016,19 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J59">
         <v>331.73</v>
       </c>
       <c r="K59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3042,19 +3051,19 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J60">
         <v>1080.48</v>
       </c>
       <c r="K60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3077,19 +3086,19 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J61">
         <v>331.73</v>
       </c>
       <c r="K61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3112,19 +3121,19 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J62">
         <v>1080.48</v>
       </c>
       <c r="K62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3147,19 +3156,19 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J63">
         <v>824.79</v>
       </c>
       <c r="K63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3182,19 +3191,19 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J64">
         <v>568.7</v>
       </c>
       <c r="K64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3217,19 +3226,19 @@
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J65">
         <v>578.4400000000001</v>
       </c>
       <c r="K65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3252,19 +3261,19 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J66">
         <v>824.79</v>
       </c>
       <c r="K66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3287,19 +3296,19 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J67">
         <v>331.73</v>
       </c>
       <c r="K67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3322,19 +3331,19 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J68">
         <v>537.5599999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3357,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3383,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3409,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3435,19 +3444,19 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J72">
         <v>663.39</v>
       </c>
       <c r="K72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3470,19 +3479,19 @@
         <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J73">
         <v>833.58</v>
       </c>
       <c r="K73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3505,19 +3514,19 @@
         <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J74">
         <v>1009.71</v>
       </c>
       <c r="K74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3540,19 +3549,19 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I75" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J75">
         <v>350.66</v>
       </c>
       <c r="K75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3575,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3601,10 +3610,10 @@
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3627,19 +3636,19 @@
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J78">
         <v>532.35</v>
       </c>
       <c r="K78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3662,19 +3671,19 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J79">
         <v>478.71</v>
       </c>
       <c r="K79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3697,28 +3706,28 @@
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H80" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I80" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J80">
         <v>1047.15</v>
       </c>
       <c r="K80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M80" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N80" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3741,28 +3750,28 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I81" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J81">
         <v>275.96</v>
       </c>
       <c r="K81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M81" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N81" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3785,28 +3794,28 @@
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J82">
         <v>317.68</v>
       </c>
       <c r="K82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M82" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N82" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3829,25 +3838,25 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J83">
         <v>1425.81</v>
       </c>
       <c r="K83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L83" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M83" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N83" s="2">
         <v>45897</v>
@@ -3873,28 +3882,28 @@
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I84" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J84">
         <v>1502.37</v>
       </c>
       <c r="K84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M84" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N84" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -3917,28 +3926,28 @@
         <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J85">
         <v>1009.71</v>
       </c>
       <c r="K85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M85" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N85" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -3961,19 +3970,19 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H86" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M86" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N86" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -3996,25 +4005,25 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J87">
         <v>226.77</v>
       </c>
       <c r="K87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M87" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N87" s="2">
         <v>45897</v>
@@ -4040,28 +4049,28 @@
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J88">
         <v>720.76</v>
       </c>
       <c r="K88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M88" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N88" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4084,28 +4093,28 @@
         <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J89">
         <v>925.47</v>
       </c>
       <c r="K89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M89" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N89" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4128,28 +4137,28 @@
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I90" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J90">
         <v>496.08</v>
       </c>
       <c r="K90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L90" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M90" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N90" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4172,25 +4181,25 @@
         <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H91" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I91" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J91">
         <v>1704.49</v>
       </c>
       <c r="K91" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M91" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N91" s="2">
         <v>45897</v>
@@ -4216,25 +4225,25 @@
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J92">
         <v>772.2</v>
       </c>
       <c r="K92" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M92" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N92" s="2">
         <v>45897</v>
@@ -4260,28 +4269,28 @@
         <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J93">
         <v>496.08</v>
       </c>
       <c r="K93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L93" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M93" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N93" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4304,25 +4313,25 @@
         <v>5</v>
       </c>
       <c r="G94" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H94" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J94">
         <v>1704.49</v>
       </c>
       <c r="K94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M94" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N94" s="2">
         <v>45897</v>
@@ -4348,25 +4357,25 @@
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I95" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J95">
         <v>772.2</v>
       </c>
       <c r="K95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N95" s="2">
         <v>45897</v>
@@ -4392,25 +4401,25 @@
         <v>5</v>
       </c>
       <c r="G96" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H96" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J96">
         <v>1704.49</v>
       </c>
       <c r="K96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L96" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M96" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N96" s="2">
         <v>45897</v>
@@ -4436,25 +4445,25 @@
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I97" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J97">
         <v>772.2</v>
       </c>
       <c r="K97" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L97" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M97" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N97" s="2">
         <v>45897</v>
@@ -4480,28 +4489,28 @@
         <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J98">
         <v>496.08</v>
       </c>
       <c r="K98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M98" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N98" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4524,28 +4533,28 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J99">
         <v>227.44</v>
       </c>
       <c r="K99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M99" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N99" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4568,28 +4577,28 @@
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I100" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J100">
         <v>327.35</v>
       </c>
       <c r="K100" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M100" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N100" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4612,25 +4621,25 @@
         <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H101" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I101" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J101">
         <v>532.35</v>
       </c>
       <c r="K101" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L101" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M101" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N101" s="2">
         <v>45897</v>
@@ -4656,28 +4665,28 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H102" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J102">
         <v>227.44</v>
       </c>
       <c r="K102" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M102" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4700,28 +4709,28 @@
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H103" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J103">
         <v>227.44</v>
       </c>
       <c r="K103" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M103" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N103" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4744,28 +4753,28 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J104">
         <v>279.08</v>
       </c>
       <c r="K104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M104" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N104" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -4788,28 +4797,28 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H105" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J105">
         <v>227.44</v>
       </c>
       <c r="K105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M105" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N105" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -4832,25 +4841,25 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H106" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I106" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J106">
         <v>230.17</v>
       </c>
       <c r="K106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M106" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N106" s="2">
         <v>45897</v>
@@ -4876,28 +4885,28 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H107" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I107" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J107">
         <v>274.96</v>
       </c>
       <c r="K107" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L107" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M107" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N107" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -4920,25 +4929,25 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H108" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I108" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J108">
         <v>796.88</v>
       </c>
       <c r="K108" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L108" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M108" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N108" s="2">
         <v>45897</v>
@@ -4964,28 +4973,28 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H109" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I109" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J109">
         <v>227.44</v>
       </c>
       <c r="K109" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M109" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N109" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5008,25 +5017,25 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H110" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I110" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J110">
         <v>796.88</v>
       </c>
       <c r="K110" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M110" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N110" s="2">
         <v>45897</v>
@@ -5052,28 +5061,28 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H111" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I111" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J111">
         <v>227.44</v>
       </c>
       <c r="K111" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M111" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N111" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5096,28 +5105,28 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H112" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I112" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J112">
         <v>551.83</v>
       </c>
       <c r="K112" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M112" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N112" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5140,25 +5149,25 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H113" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I113" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J113">
         <v>761.3</v>
       </c>
       <c r="K113" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L113" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M113" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N113" s="2">
         <v>45897</v>
@@ -5184,28 +5193,28 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H114" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I114" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J114">
         <v>551.83</v>
       </c>
       <c r="K114" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L114" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M114" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N114" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5228,25 +5237,25 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H115" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I115" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J115">
         <v>761.3</v>
       </c>
       <c r="K115" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L115" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M115" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N115" s="2">
         <v>45897</v>
@@ -5272,28 +5281,28 @@
         <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H116" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I116" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J116">
         <v>639.99</v>
       </c>
       <c r="K116" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L116" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M116" t="s">
         <v>60</v>
       </c>
       <c r="N116" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5316,19 +5325,19 @@
         <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H117" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L117" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M117" t="s">
         <v>60</v>
       </c>
       <c r="N117" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5338,11 +5347,11 @@
       <c r="B118" t="s">
         <v>177</v>
       </c>
-      <c r="C118" t="s">
-        <v>178</v>
-      </c>
-      <c r="D118" t="s">
-        <v>179</v>
+      <c r="C118">
+        <v>7201</v>
+      </c>
+      <c r="D118">
+        <v>33032</v>
       </c>
       <c r="E118">
         <v>1800</v>
@@ -5351,28 +5360,72 @@
         <v>6</v>
       </c>
       <c r="G118" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H118" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I118" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J118">
         <v>1053.58</v>
       </c>
       <c r="K118" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L118" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M118" t="s">
         <v>60</v>
       </c>
       <c r="N118" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="s">
+        <v>60</v>
+      </c>
+      <c r="B119" t="s">
+        <v>178</v>
+      </c>
+      <c r="C119" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" t="s">
+        <v>180</v>
+      </c>
+      <c r="E119">
+        <v>1000</v>
+      </c>
+      <c r="F119">
+        <v>8</v>
+      </c>
+      <c r="G119" t="s">
+        <v>181</v>
+      </c>
+      <c r="H119" t="s">
+        <v>181</v>
+      </c>
+      <c r="I119" t="s">
+        <v>190</v>
+      </c>
+      <c r="J119">
+        <v>391.95</v>
+      </c>
+      <c r="K119" t="s">
+        <v>191</v>
+      </c>
+      <c r="L119" t="s">
+        <v>223</v>
+      </c>
+      <c r="M119" t="s">
+        <v>60</v>
+      </c>
+      <c r="N119" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/exfreight_api_log.xlsx
+++ b/Logs/exfreight_api_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="258">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -553,10 +553,13 @@
     <t>2025-09-23 10:58:15</t>
   </si>
   <si>
+    <t>2025-09-24 07:50:32</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>18101</t>
+    <t>60007</t>
   </si>
   <si>
     <t>Success</t>
@@ -724,6 +727,9 @@
     <t>TRANSPORT_RATES_20250923105802</t>
   </si>
   <si>
+    <t>TRANSPORT_RATES_20250924075011</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -815,6 +821,9 @@
   </si>
   <si>
     <t>23-09-2025</t>
+  </si>
+  <si>
+    <t>24-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,19 +1255,19 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J2">
         <v>546.16</v>
       </c>
       <c r="K2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1281,19 +1290,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J3">
         <v>2033.46</v>
       </c>
       <c r="K3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1316,19 +1325,19 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J4">
         <v>1314.23</v>
       </c>
       <c r="K4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1351,19 +1360,19 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J5">
         <v>638.28</v>
       </c>
       <c r="K5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1386,19 +1395,19 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J6">
         <v>1391.13</v>
       </c>
       <c r="K6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1421,10 +1430,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1447,19 +1456,19 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J8">
         <v>228.43</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1482,10 +1491,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1508,10 +1517,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1534,10 +1543,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1560,19 +1569,19 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J12">
         <v>331.73</v>
       </c>
       <c r="K12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1595,10 +1604,10 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1621,10 +1630,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1647,10 +1656,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1673,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1699,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1725,19 +1734,19 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J18">
         <v>1148.94</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1760,19 +1769,19 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J19">
         <v>2094.3</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1795,19 +1804,19 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J20">
         <v>1220.31</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1830,19 +1839,19 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J21">
         <v>2285.01</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1865,19 +1874,19 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J22">
         <v>2285.01</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1900,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1926,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1952,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1978,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2004,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2030,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2056,10 +2065,10 @@
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2082,19 +2091,19 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J30">
         <v>827.1900000000001</v>
       </c>
       <c r="K30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2117,10 +2126,10 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2143,19 +2152,19 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J32">
         <v>1451.97</v>
       </c>
       <c r="K32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2178,19 +2187,19 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J33">
         <v>827.1900000000001</v>
       </c>
       <c r="K33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2213,10 +2222,10 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2239,19 +2248,19 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J35">
         <v>1451.97</v>
       </c>
       <c r="K35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2274,10 +2283,10 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2300,19 +2309,19 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J37">
         <v>1391.13</v>
       </c>
       <c r="K37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2335,19 +2344,19 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J38">
         <v>905.52</v>
       </c>
       <c r="K38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2370,10 +2379,10 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2396,10 +2405,10 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2422,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2448,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2474,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2500,19 +2509,19 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J44">
         <v>478.71</v>
       </c>
       <c r="K44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2535,19 +2544,19 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J45">
         <v>478.71</v>
       </c>
       <c r="K45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2570,19 +2579,19 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J46">
         <v>594.48</v>
       </c>
       <c r="K46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2605,19 +2614,19 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J47">
         <v>299.88</v>
       </c>
       <c r="K47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2640,19 +2649,19 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J48">
         <v>401.77</v>
       </c>
       <c r="K48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2675,19 +2684,19 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J49">
         <v>299.88</v>
       </c>
       <c r="K49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2710,19 +2719,19 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J50">
         <v>299.88</v>
       </c>
       <c r="K50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2745,19 +2754,19 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J51">
         <v>478.71</v>
       </c>
       <c r="K51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2780,19 +2789,19 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J52">
         <v>299.01</v>
       </c>
       <c r="K52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2815,19 +2824,19 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J53">
         <v>643.77</v>
       </c>
       <c r="K53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2850,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2876,19 +2885,19 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J55">
         <v>331.73</v>
       </c>
       <c r="K55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2911,19 +2920,19 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J56">
         <v>537.5599999999999</v>
       </c>
       <c r="K56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2946,19 +2955,19 @@
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J57">
         <v>568.7</v>
       </c>
       <c r="K57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2981,19 +2990,19 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J58">
         <v>578.4400000000001</v>
       </c>
       <c r="K58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3016,19 +3025,19 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J59">
         <v>331.73</v>
       </c>
       <c r="K59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3051,19 +3060,19 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J60">
         <v>1080.48</v>
       </c>
       <c r="K60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3086,19 +3095,19 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J61">
         <v>331.73</v>
       </c>
       <c r="K61" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3121,19 +3130,19 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J62">
         <v>1080.48</v>
       </c>
       <c r="K62" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3156,19 +3165,19 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J63">
         <v>824.79</v>
       </c>
       <c r="K63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3191,19 +3200,19 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J64">
         <v>568.7</v>
       </c>
       <c r="K64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3226,19 +3235,19 @@
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J65">
         <v>578.4400000000001</v>
       </c>
       <c r="K65" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3261,19 +3270,19 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J66">
         <v>824.79</v>
       </c>
       <c r="K66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3296,19 +3305,19 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J67">
         <v>331.73</v>
       </c>
       <c r="K67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3331,19 +3340,19 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J68">
         <v>537.5599999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3366,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3392,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3418,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3444,19 +3453,19 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J72">
         <v>663.39</v>
       </c>
       <c r="K72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3479,19 +3488,19 @@
         <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J73">
         <v>833.58</v>
       </c>
       <c r="K73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3514,19 +3523,19 @@
         <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J74">
         <v>1009.71</v>
       </c>
       <c r="K74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3549,19 +3558,19 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J75">
         <v>350.66</v>
       </c>
       <c r="K75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3584,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3610,10 +3619,10 @@
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3636,19 +3645,19 @@
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J78">
         <v>532.35</v>
       </c>
       <c r="K78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3671,19 +3680,19 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J79">
         <v>478.71</v>
       </c>
       <c r="K79" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3706,28 +3715,28 @@
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J80">
         <v>1047.15</v>
       </c>
       <c r="K80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M80" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N80" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3750,28 +3759,28 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I81" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J81">
         <v>275.96</v>
       </c>
       <c r="K81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L81" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M81" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N81" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3794,28 +3803,28 @@
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J82">
         <v>317.68</v>
       </c>
       <c r="K82" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M82" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3838,25 +3847,25 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J83">
         <v>1425.81</v>
       </c>
       <c r="K83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M83" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N83" s="2">
         <v>45897</v>
@@ -3882,28 +3891,28 @@
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J84">
         <v>1502.37</v>
       </c>
       <c r="K84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M84" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N84" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -3926,28 +3935,28 @@
         <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J85">
         <v>1009.71</v>
       </c>
       <c r="K85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M85" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N85" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -3970,19 +3979,19 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M86" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N86" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4005,25 +4014,25 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J87">
         <v>226.77</v>
       </c>
       <c r="K87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M87" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N87" s="2">
         <v>45897</v>
@@ -4049,28 +4058,28 @@
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J88">
         <v>720.76</v>
       </c>
       <c r="K88" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M88" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N88" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4093,28 +4102,28 @@
         <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J89">
         <v>925.47</v>
       </c>
       <c r="K89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M89" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N89" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4137,28 +4146,28 @@
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J90">
         <v>496.08</v>
       </c>
       <c r="K90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M90" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N90" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4181,25 +4190,25 @@
         <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J91">
         <v>1704.49</v>
       </c>
       <c r="K91" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M91" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N91" s="2">
         <v>45897</v>
@@ -4225,25 +4234,25 @@
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I92" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J92">
         <v>772.2</v>
       </c>
       <c r="K92" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L92" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M92" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N92" s="2">
         <v>45897</v>
@@ -4269,28 +4278,28 @@
         <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J93">
         <v>496.08</v>
       </c>
       <c r="K93" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L93" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M93" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N93" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4313,25 +4322,25 @@
         <v>5</v>
       </c>
       <c r="G94" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H94" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J94">
         <v>1704.49</v>
       </c>
       <c r="K94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M94" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N94" s="2">
         <v>45897</v>
@@ -4357,25 +4366,25 @@
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H95" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J95">
         <v>772.2</v>
       </c>
       <c r="K95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M95" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N95" s="2">
         <v>45897</v>
@@ -4401,25 +4410,25 @@
         <v>5</v>
       </c>
       <c r="G96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J96">
         <v>1704.49</v>
       </c>
       <c r="K96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L96" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M96" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N96" s="2">
         <v>45897</v>
@@ -4445,25 +4454,25 @@
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H97" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I97" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J97">
         <v>772.2</v>
       </c>
       <c r="K97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L97" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M97" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N97" s="2">
         <v>45897</v>
@@ -4489,28 +4498,28 @@
         <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J98">
         <v>496.08</v>
       </c>
       <c r="K98" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M98" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N98" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4533,28 +4542,28 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J99">
         <v>227.44</v>
       </c>
       <c r="K99" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M99" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N99" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4577,28 +4586,28 @@
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I100" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J100">
         <v>327.35</v>
       </c>
       <c r="K100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M100" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N100" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4621,25 +4630,25 @@
         <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J101">
         <v>532.35</v>
       </c>
       <c r="K101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M101" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N101" s="2">
         <v>45897</v>
@@ -4665,28 +4674,28 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H102" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I102" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J102">
         <v>227.44</v>
       </c>
       <c r="K102" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L102" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M102" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N102" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4709,28 +4718,28 @@
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H103" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I103" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J103">
         <v>227.44</v>
       </c>
       <c r="K103" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L103" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M103" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N103" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4753,28 +4762,28 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H104" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J104">
         <v>279.08</v>
       </c>
       <c r="K104" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L104" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M104" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N104" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -4797,28 +4806,28 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H105" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J105">
         <v>227.44</v>
       </c>
       <c r="K105" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M105" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N105" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -4841,25 +4850,25 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J106">
         <v>230.17</v>
       </c>
       <c r="K106" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M106" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N106" s="2">
         <v>45897</v>
@@ -4885,28 +4894,28 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H107" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J107">
         <v>274.96</v>
       </c>
       <c r="K107" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M107" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N107" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -4929,25 +4938,25 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H108" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I108" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J108">
         <v>796.88</v>
       </c>
       <c r="K108" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M108" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N108" s="2">
         <v>45897</v>
@@ -4973,28 +4982,28 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H109" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I109" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J109">
         <v>227.44</v>
       </c>
       <c r="K109" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L109" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M109" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N109" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5017,25 +5026,25 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I110" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J110">
         <v>796.88</v>
       </c>
       <c r="K110" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L110" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M110" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N110" s="2">
         <v>45897</v>
@@ -5061,28 +5070,28 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I111" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J111">
         <v>227.44</v>
       </c>
       <c r="K111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M111" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N111" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5105,28 +5114,28 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H112" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I112" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J112">
         <v>551.83</v>
       </c>
       <c r="K112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M112" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N112" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5149,25 +5158,25 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H113" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I113" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J113">
         <v>761.3</v>
       </c>
       <c r="K113" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L113" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M113" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N113" s="2">
         <v>45897</v>
@@ -5193,28 +5202,28 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H114" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I114" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J114">
         <v>551.83</v>
       </c>
       <c r="K114" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L114" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M114" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N114" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5237,25 +5246,25 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H115" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I115" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J115">
         <v>761.3</v>
       </c>
       <c r="K115" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L115" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M115" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N115" s="2">
         <v>45897</v>
@@ -5281,28 +5290,28 @@
         <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H116" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I116" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J116">
         <v>639.99</v>
       </c>
       <c r="K116" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L116" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M116" t="s">
         <v>60</v>
       </c>
       <c r="N116" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5325,19 +5334,19 @@
         <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H117" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L117" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M117" t="s">
         <v>60</v>
       </c>
       <c r="N117" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5360,28 +5369,28 @@
         <v>6</v>
       </c>
       <c r="G118" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H118" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I118" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J118">
         <v>1053.58</v>
       </c>
       <c r="K118" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L118" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M118" t="s">
         <v>60</v>
       </c>
       <c r="N118" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5391,11 +5400,11 @@
       <c r="B119" t="s">
         <v>178</v>
       </c>
-      <c r="C119" t="s">
-        <v>179</v>
-      </c>
-      <c r="D119" t="s">
-        <v>180</v>
+      <c r="C119">
+        <v>7201</v>
+      </c>
+      <c r="D119">
+        <v>18101</v>
       </c>
       <c r="E119">
         <v>1000</v>
@@ -5404,28 +5413,72 @@
         <v>8</v>
       </c>
       <c r="G119" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H119" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I119" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J119">
         <v>391.95</v>
       </c>
       <c r="K119" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L119" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M119" t="s">
         <v>60</v>
       </c>
       <c r="N119" t="s">
-        <v>254</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" t="s">
+        <v>180</v>
+      </c>
+      <c r="D120" t="s">
+        <v>181</v>
+      </c>
+      <c r="E120">
+        <v>750</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120" t="s">
+        <v>182</v>
+      </c>
+      <c r="H120" t="s">
+        <v>182</v>
+      </c>
+      <c r="I120" t="s">
+        <v>191</v>
+      </c>
+      <c r="J120">
+        <v>543.59</v>
+      </c>
+      <c r="K120" t="s">
+        <v>192</v>
+      </c>
+      <c r="L120" t="s">
+        <v>225</v>
+      </c>
+      <c r="M120" t="s">
+        <v>60</v>
+      </c>
+      <c r="N120" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
